--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/Datamodels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\RWS Ketentest\pybron\BronDatamodel\BROMappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B8BD1A-CF02-4848-93DD-BACA524CE8A3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB233E5-5F60-4464-8750-9C3F62CEA0FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="322">
   <si>
     <t xml:space="preserve">RegistrationObject </t>
   </si>
@@ -711,9 +711,6 @@
     <t>referentiestelsel</t>
   </si>
   <si>
-    <t xml:space="preserve">methode locatiebepaling </t>
-  </si>
-  <si>
     <t>lokaal verticaal referentiepunt</t>
   </si>
   <si>
@@ -777,12 +774,6 @@
     <t>elektrodepositie</t>
   </si>
   <si>
-    <t xml:space="preserve">elektrodestatus </t>
-  </si>
-  <si>
-    <t xml:space="preserve">aanvulmateriaal buis </t>
-  </si>
-  <si>
     <t>lijm</t>
   </si>
   <si>
@@ -792,9 +783,6 @@
     <t>filterlengte</t>
   </si>
   <si>
-    <t xml:space="preserve">kousmateriaal </t>
-  </si>
-  <si>
     <t>zandvanglengte</t>
   </si>
   <si>
@@ -991,6 +979,21 @@
   </si>
   <si>
     <t>(Nu nog) Index van C.DATA.BRO.COM.List.QualityRegime</t>
+  </si>
+  <si>
+    <t>methode locatiebepaling</t>
+  </si>
+  <si>
+    <t>aanvulmateriaal buis</t>
+  </si>
+  <si>
+    <t>kousmateriaal</t>
+  </si>
+  <si>
+    <t>elektrodestatus</t>
+  </si>
+  <si>
+    <t>sedSumpLength</t>
   </si>
 </sst>
 </file>
@@ -1145,7 +1148,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1158,30 +1161,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person0.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person2.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person3.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=xl/persons/person4.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1450,35 +1429,35 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2784" ySplit="696" topLeftCell="Q1" activePane="bottomRight"/>
+      <pane xSplit="2790" ySplit="690" topLeftCell="J57" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="P75" sqref="P75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>191</v>
       </c>
@@ -1540,7 +1519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1570,7 +1549,7 @@
         <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P2" t="s">
         <v>185</v>
@@ -1585,7 +1564,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1630,7 +1609,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1675,7 +1654,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1689,7 +1668,7 @@
         <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>89</v>
@@ -1714,16 +1693,16 @@
         <v>169</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>84</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -1738,10 +1717,10 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1753,7 +1732,7 @@
         <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P6" t="s">
         <v>101</v>
@@ -1768,7 +1747,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1786,7 +1765,7 @@
         <v>207</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1798,10 +1777,10 @@
         <v>84</v>
       </c>
       <c r="N7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="O7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P7" t="s">
         <v>103</v>
@@ -1819,7 +1798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -1837,7 +1816,7 @@
         <v>208</v>
       </c>
       <c r="H8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1849,7 +1828,7 @@
         <v>84</v>
       </c>
       <c r="N8" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="O8" t="s">
         <v>102</v>
@@ -1867,7 +1846,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -1885,7 +1864,7 @@
         <v>209</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1897,16 +1876,16 @@
         <v>84</v>
       </c>
       <c r="N9" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="O9" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q9" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>111</v>
@@ -1918,7 +1897,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
@@ -1935,7 +1914,7 @@
         <v>210</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
@@ -1947,10 +1926,10 @@
         <v>84</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O10" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>184</v>
@@ -1965,49 +1944,49 @@
         <v>84</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>13</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" t="s">
+        <v>259</v>
+      </c>
+      <c r="H11" t="s">
         <v>260</v>
       </c>
-      <c r="D11" t="s">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" t="s">
         <v>261</v>
       </c>
-      <c r="E11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F11" t="s">
-        <v>263</v>
-      </c>
-      <c r="H11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" t="s">
-        <v>265</v>
-      </c>
       <c r="O11" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q11" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="R11" t="s">
         <v>168</v>
@@ -2016,7 +1995,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2056,13 +2035,13 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="Q12" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>107</v>
@@ -2071,28 +2050,28 @@
         <v>84</v>
       </c>
       <c r="T12" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
@@ -2104,7 +2083,7 @@
         <v>84</v>
       </c>
       <c r="N13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="O13" t="s">
         <v>146</v>
@@ -2122,25 +2101,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" t="s">
+        <v>266</v>
+      </c>
+      <c r="F14" t="s">
+        <v>267</v>
+      </c>
+      <c r="H14" t="s">
         <v>260</v>
-      </c>
-      <c r="D14" t="s">
-        <v>261</v>
-      </c>
-      <c r="E14" t="s">
-        <v>270</v>
-      </c>
-      <c r="F14" t="s">
-        <v>271</v>
-      </c>
-      <c r="H14" t="s">
-        <v>264</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2152,7 +2131,7 @@
         <v>84</v>
       </c>
       <c r="N14" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="O14" t="s">
         <v>146</v>
@@ -2170,28 +2149,28 @@
         <v>83</v>
       </c>
       <c r="T14" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E15" t="s">
+        <v>269</v>
+      </c>
+      <c r="F15" t="s">
+        <v>270</v>
+      </c>
+      <c r="H15" t="s">
         <v>260</v>
-      </c>
-      <c r="D15" t="s">
-        <v>261</v>
-      </c>
-      <c r="E15" t="s">
-        <v>273</v>
-      </c>
-      <c r="F15" t="s">
-        <v>274</v>
-      </c>
-      <c r="H15" t="s">
-        <v>264</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
@@ -2203,7 +2182,7 @@
         <v>84</v>
       </c>
       <c r="N15" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="O15" t="s">
         <v>146</v>
@@ -2221,25 +2200,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="F16" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
@@ -2251,7 +2230,7 @@
         <v>84</v>
       </c>
       <c r="N16" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O16" t="s">
         <v>146</v>
@@ -2269,25 +2248,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
+        <v>256</v>
+      </c>
+      <c r="D17" t="s">
+        <v>257</v>
+      </c>
+      <c r="E17" t="s">
+        <v>275</v>
+      </c>
+      <c r="F17" t="s">
+        <v>276</v>
+      </c>
+      <c r="H17" t="s">
         <v>260</v>
-      </c>
-      <c r="D17" t="s">
-        <v>261</v>
-      </c>
-      <c r="E17" t="s">
-        <v>279</v>
-      </c>
-      <c r="F17" t="s">
-        <v>280</v>
-      </c>
-      <c r="H17" t="s">
-        <v>264</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -2299,7 +2278,7 @@
         <v>84</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="O17" t="s">
         <v>146</v>
@@ -2317,25 +2296,25 @@
         <v>83</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
@@ -2347,7 +2326,7 @@
         <v>84</v>
       </c>
       <c r="N18" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="O18" t="s">
         <v>9</v>
@@ -2365,25 +2344,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D19" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" t="s">
+        <v>281</v>
+      </c>
+      <c r="F19" t="s">
+        <v>282</v>
+      </c>
+      <c r="H19" t="s">
         <v>260</v>
-      </c>
-      <c r="D19" t="s">
-        <v>261</v>
-      </c>
-      <c r="E19" t="s">
-        <v>285</v>
-      </c>
-      <c r="F19" t="s">
-        <v>286</v>
-      </c>
-      <c r="H19" t="s">
-        <v>264</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -2395,7 +2374,7 @@
         <v>84</v>
       </c>
       <c r="N19" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O19" t="s">
         <v>9</v>
@@ -2413,25 +2392,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
@@ -2443,7 +2422,7 @@
         <v>84</v>
       </c>
       <c r="N20" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="O20" t="s">
         <v>9</v>
@@ -2461,25 +2440,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
+        <v>256</v>
+      </c>
+      <c r="D21" t="s">
+        <v>257</v>
+      </c>
+      <c r="E21" t="s">
+        <v>287</v>
+      </c>
+      <c r="F21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" t="s">
         <v>260</v>
-      </c>
-      <c r="D21" t="s">
-        <v>261</v>
-      </c>
-      <c r="E21" t="s">
-        <v>291</v>
-      </c>
-      <c r="F21" t="s">
-        <v>292</v>
-      </c>
-      <c r="H21" t="s">
-        <v>264</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
@@ -2491,7 +2470,7 @@
         <v>84</v>
       </c>
       <c r="N21" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="O21" t="s">
         <v>9</v>
@@ -2509,25 +2488,25 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="H22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -2539,7 +2518,7 @@
         <v>84</v>
       </c>
       <c r="N22" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="O22" t="s">
         <v>9</v>
@@ -2557,24 +2536,24 @@
         <v>89</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="H23" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -2586,7 +2565,7 @@
         <v>84</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>9</v>
@@ -2604,7 +2583,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2649,7 +2628,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2694,7 +2673,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2739,7 +2718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -2784,7 +2763,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2832,7 +2811,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2880,7 +2859,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2928,7 +2907,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -2961,10 +2940,10 @@
         <v>102</v>
       </c>
       <c r="P31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="Q31" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>106</v>
@@ -2974,7 +2953,7 @@
       </c>
       <c r="T31" s="8"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3019,7 +2998,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3049,7 +3028,7 @@
         <v>84</v>
       </c>
       <c r="O33" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="P33" t="s">
         <v>118</v>
@@ -3067,7 +3046,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3115,7 +3094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3166,7 +3145,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
@@ -3214,7 +3193,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3262,7 +3241,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3310,13 +3289,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
@@ -3355,13 +3334,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>13</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="D40" t="s">
         <v>14</v>
@@ -3403,7 +3382,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3448,7 +3427,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3493,7 +3472,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3508,7 +3487,7 @@
         <v>32</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>317</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -3535,7 +3514,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3550,7 +3529,7 @@
         <v>35</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
@@ -3580,7 +3559,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3595,7 +3574,7 @@
         <v>36</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -3625,7 +3604,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3640,7 +3619,7 @@
         <v>37</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -3670,7 +3649,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3685,7 +3664,7 @@
         <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
@@ -3715,7 +3694,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>13</v>
       </c>
@@ -3729,7 +3708,7 @@
         <v>39</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -3760,7 +3739,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3775,7 +3754,7 @@
         <v>42</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3799,13 +3778,13 @@
         <v>169</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="S49" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3820,7 +3799,7 @@
         <v>43</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3850,7 +3829,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3844,7 @@
         <v>44</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3895,7 +3874,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3910,7 +3889,7 @@
         <v>45</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3943,7 +3922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3958,7 +3937,7 @@
         <v>46</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3991,7 +3970,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4039,7 +4018,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4054,7 +4033,7 @@
         <v>47</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4087,7 +4066,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4102,7 +4081,7 @@
         <v>48</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4135,7 +4114,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4150,7 +4129,7 @@
         <v>49</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4186,7 +4165,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4201,7 +4180,7 @@
         <v>51</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -4234,7 +4213,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4249,7 +4228,7 @@
         <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4282,7 +4261,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>13</v>
       </c>
@@ -4296,7 +4275,7 @@
         <v>96</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4330,7 +4309,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4345,7 +4324,7 @@
         <v>55</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4378,7 +4357,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4393,7 +4372,7 @@
         <v>97</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4423,7 +4402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4438,7 +4417,7 @@
         <v>58</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
@@ -4468,7 +4447,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4483,7 +4462,7 @@
         <v>59</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
@@ -4513,7 +4492,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -4528,7 +4507,7 @@
         <v>60</v>
       </c>
       <c r="F65" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
@@ -4561,7 +4540,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>13</v>
       </c>
@@ -4575,7 +4554,7 @@
         <v>61</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>249</v>
+        <v>320</v>
       </c>
       <c r="J66" s="16">
         <v>1</v>
@@ -4609,7 +4588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4624,7 +4603,7 @@
         <v>64</v>
       </c>
       <c r="F67" t="s">
-        <v>250</v>
+        <v>318</v>
       </c>
       <c r="J67" s="6">
         <v>1</v>
@@ -4651,7 +4630,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4666,7 +4645,7 @@
         <v>65</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -4696,7 +4675,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4711,7 +4690,7 @@
         <v>66</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
@@ -4741,7 +4720,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4756,7 +4735,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4789,7 +4768,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4804,7 +4783,7 @@
         <v>70</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4834,7 +4813,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4876,7 +4855,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4918,7 +4897,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4966,7 +4945,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4981,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -4996,7 +4975,7 @@
         <v>128</v>
       </c>
       <c r="P75" t="s">
-        <v>144</v>
+        <v>321</v>
       </c>
       <c r="Q75" t="s">
         <v>144</v>
@@ -5008,7 +4987,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -5023,7 +5002,7 @@
         <v>80</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5053,7 +5032,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -5068,7 +5047,7 @@
         <v>81</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5098,7 +5077,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>13</v>
       </c>
@@ -5112,7 +5091,7 @@
         <v>82</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="J78" s="20">
         <v>0</v>
@@ -5143,7 +5122,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -5197,7 +5176,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -5251,7 +5230,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -5305,7 +5284,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>9</v>
       </c>
@@ -5359,7 +5338,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>9</v>
       </c>
@@ -5413,7 +5392,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -5467,7 +5446,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>9</v>
       </c>
@@ -5521,7 +5500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>9</v>
       </c>
@@ -5563,10 +5542,10 @@
         <v>128</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="Q86" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="R86" t="s">
         <v>112</v>
@@ -5575,7 +5554,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>9</v>
       </c>
@@ -5590,7 +5569,7 @@
         <v>164</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>89</v>
@@ -5629,7 +5608,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>9</v>
       </c>
@@ -5644,7 +5623,7 @@
         <v>165</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>89</v>
@@ -5683,7 +5662,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>9</v>
       </c>
@@ -5737,7 +5716,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>9</v>
       </c>
@@ -5791,7 +5770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>9</v>
       </c>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/Datamodels/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30B8BD1A-CF02-4848-93DD-BACA524CE8A3}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543E1B20-C4F6-4956-82B1-51777C0B0CE6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,10 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="321">
-  <si>
-    <t xml:space="preserve">RegistrationObject </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="320">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -42,21 +39,9 @@
     <t>Opmerking</t>
   </si>
   <si>
-    <t xml:space="preserve">broId                     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deliveryAccountableParty  </t>
-  </si>
-  <si>
     <t>moet gekopppeld worden aan GMW</t>
   </si>
   <si>
-    <t xml:space="preserve">objectIdAccountableParty  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">deliveryResponsibleParty  </t>
-  </si>
-  <si>
     <t>Geen</t>
   </si>
   <si>
@@ -114,39 +99,15 @@
     <t>Dynamisch</t>
   </si>
   <si>
-    <t xml:space="preserve">DeliveredLocation </t>
-  </si>
-  <si>
     <t>Aangeleverde locatie</t>
   </si>
   <si>
     <t>coordinates</t>
   </si>
   <si>
-    <t xml:space="preserve">CRS                         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">horizontalPositioningMethod </t>
-  </si>
-  <si>
-    <t xml:space="preserve">DeliveredVerticalPosition </t>
-  </si>
-  <si>
     <t>Aangeleverde verticale positie</t>
   </si>
   <si>
-    <t xml:space="preserve">localVerticalReferencePoint </t>
-  </si>
-  <si>
-    <t xml:space="preserve">offset                      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">verticalDatum               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">groundLevelPosition         </t>
-  </si>
-  <si>
     <t>groundLevelPositioningMethod</t>
   </si>
   <si>
@@ -156,129 +117,42 @@
     <t>Monitoringbuis</t>
   </si>
   <si>
-    <t xml:space="preserve">tubeNumber               </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubeType                 </t>
-  </si>
-  <si>
     <t>artesianWellCapPresent</t>
   </si>
   <si>
-    <t xml:space="preserve">sedimentSumpPresent      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">numberOfGeoOhmCables     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubeTopDiameter          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">variableDiameter         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubeStatus               </t>
-  </si>
-  <si>
     <t>Nog niet gekoppeld bij export</t>
   </si>
   <si>
-    <t xml:space="preserve">tubeTopPosition          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubeTopPositioningMethod </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GeoOhmCable </t>
-  </si>
-  <si>
     <t>Geo-ohmkabel</t>
   </si>
   <si>
     <t>cableNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">Electrode </t>
-  </si>
-  <si>
     <t>Elektrode</t>
   </si>
   <si>
-    <t xml:space="preserve">electrodeNumber             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrodePackingMaterial    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrodePosition           </t>
-  </si>
-  <si>
-    <t xml:space="preserve">electrodeStatus             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaterialUsed </t>
-  </si>
-  <si>
     <t>Toegepast materiaal</t>
   </si>
   <si>
-    <t xml:space="preserve">tubePackingMaterial         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">glue                        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">tubeMaterial                </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Screen </t>
-  </si>
-  <si>
     <t>Filter</t>
   </si>
   <si>
-    <t xml:space="preserve">screenLength         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">sockMaterial         </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PlaintubePart </t>
-  </si>
-  <si>
     <t>Stijgbuisdeel</t>
   </si>
   <si>
-    <t xml:space="preserve">plainTubePartLength         </t>
-  </si>
-  <si>
     <t xml:space="preserve">stijgbuisdeellengte </t>
   </si>
   <si>
-    <t xml:space="preserve">SedimentSump </t>
-  </si>
-  <si>
     <t>Zandvang</t>
   </si>
   <si>
-    <t xml:space="preserve">sedimentSumpLength          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">InsertedPart </t>
-  </si>
-  <si>
     <t>Ingeplaatst deel</t>
   </si>
   <si>
     <t>insertedPartLength</t>
   </si>
   <si>
-    <t xml:space="preserve">insertedPartDiameter        </t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertedPartMaterial        </t>
-  </si>
-  <si>
     <t>Ja</t>
   </si>
   <si>
@@ -991,6 +865,129 @@
   </si>
   <si>
     <t>(Nu nog) Index van C.DATA.BRO.COM.List.QualityRegime</t>
+  </si>
+  <si>
+    <t>RegistrationObject</t>
+  </si>
+  <si>
+    <t>DeliveredLocation</t>
+  </si>
+  <si>
+    <t>DeliveredVerticalPosition</t>
+  </si>
+  <si>
+    <t>GeoOhmCable</t>
+  </si>
+  <si>
+    <t>Electrode</t>
+  </si>
+  <si>
+    <t>MaterialUsed</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>PlaintubePart</t>
+  </si>
+  <si>
+    <t>SedimentSump</t>
+  </si>
+  <si>
+    <t>InsertedPart</t>
+  </si>
+  <si>
+    <t>horizontalPositioningMethod</t>
+  </si>
+  <si>
+    <t>localVerticalReferencePoint</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>verticalDatum</t>
+  </si>
+  <si>
+    <t>groundLevelPosition</t>
+  </si>
+  <si>
+    <t>tubeNumber</t>
+  </si>
+  <si>
+    <t>tubeType</t>
+  </si>
+  <si>
+    <t>sedimentSumpPresent</t>
+  </si>
+  <si>
+    <t>numberOfGeoOhmCables</t>
+  </si>
+  <si>
+    <t>tubeTopDiameter</t>
+  </si>
+  <si>
+    <t>variableDiameter</t>
+  </si>
+  <si>
+    <t>tubeStatus</t>
+  </si>
+  <si>
+    <t>tubeTopPosition</t>
+  </si>
+  <si>
+    <t>tubeTopPositioningMethod</t>
+  </si>
+  <si>
+    <t>electrodeNumber</t>
+  </si>
+  <si>
+    <t>electrodePackingMaterial</t>
+  </si>
+  <si>
+    <t>electrodePosition</t>
+  </si>
+  <si>
+    <t>electrodeStatus</t>
+  </si>
+  <si>
+    <t>tubePackingMaterial</t>
+  </si>
+  <si>
+    <t>glue</t>
+  </si>
+  <si>
+    <t>tubeMaterial</t>
+  </si>
+  <si>
+    <t>screenLength</t>
+  </si>
+  <si>
+    <t>sockMaterial</t>
+  </si>
+  <si>
+    <t>plainTubePartLength</t>
+  </si>
+  <si>
+    <t>sedimentSumpLength</t>
+  </si>
+  <si>
+    <t>insertedPartDiameter</t>
+  </si>
+  <si>
+    <t>insertedPartMaterial</t>
+  </si>
+  <si>
+    <t>deliveryAccountableParty</t>
+  </si>
+  <si>
+    <t>objectIdAccountableParty</t>
+  </si>
+  <si>
+    <t>deliveryResponsibleParty</t>
+  </si>
+  <si>
+    <t>CRS</t>
   </si>
 </sst>
 </file>
@@ -1449,12 +1446,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2784" ySplit="696" topLeftCell="Q1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="E44" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2790" ySplit="690" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight"/>
+      <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="T21" sqref="T21"/>
+      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1480,268 +1477,268 @@
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>188</v>
+        <v>146</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="H1" s="14" t="s">
-        <v>195</v>
+        <v>153</v>
       </c>
       <c r="I1" s="14" t="s">
-        <v>196</v>
+        <v>154</v>
       </c>
       <c r="J1" s="15" t="s">
-        <v>197</v>
+        <v>155</v>
       </c>
       <c r="K1" s="15" t="s">
-        <v>198</v>
+        <v>156</v>
       </c>
       <c r="L1" s="14" t="s">
-        <v>199</v>
+        <v>157</v>
       </c>
       <c r="M1" s="14" t="s">
-        <v>200</v>
+        <v>158</v>
       </c>
       <c r="N1" s="21" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="O1" s="14" t="s">
-        <v>202</v>
+        <v>160</v>
       </c>
       <c r="P1" s="14" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>204</v>
+        <v>162</v>
       </c>
       <c r="R1" s="14" t="s">
-        <v>205</v>
+        <v>163</v>
       </c>
       <c r="S1" s="14" t="s">
-        <v>206</v>
+        <v>164</v>
       </c>
       <c r="T1" s="14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B2"/>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="Q2" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="S2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M3" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="Q3" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="R3" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="S3" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4"/>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M4" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O4" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="Q4" t="s">
-        <v>185</v>
+        <v>143</v>
       </c>
       <c r="R4" s="7" t="s">
-        <v>186</v>
+        <v>144</v>
       </c>
       <c r="S4" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="J5" s="16" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="N5" s="23"/>
       <c r="O5" s="2" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" t="s">
         <v>0</v>
       </c>
-      <c r="D6" t="s">
-        <v>1</v>
-      </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>315</v>
+        <v>273</v>
       </c>
       <c r="H6" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1750,43 +1747,43 @@
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="Q6" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="R6" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="S6" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" t="s">
         <v>0</v>
       </c>
-      <c r="D7" t="s">
-        <v>1</v>
-      </c>
       <c r="E7" t="s">
-        <v>5</v>
+        <v>316</v>
       </c>
       <c r="F7" t="s">
-        <v>207</v>
+        <v>165</v>
       </c>
       <c r="H7" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1795,49 +1792,49 @@
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="O7" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="Q7" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="R7" s="6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="S7" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T7" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
+        <v>279</v>
+      </c>
+      <c r="D8" t="s">
         <v>0</v>
       </c>
-      <c r="D8" t="s">
-        <v>1</v>
-      </c>
       <c r="E8" t="s">
-        <v>7</v>
+        <v>317</v>
       </c>
       <c r="F8" t="s">
-        <v>208</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
-        <v>313</v>
+        <v>271</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1846,46 +1843,46 @@
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="O8" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P8" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="Q8" t="s">
-        <v>91</v>
+        <v>49</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="S8" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
+        <v>279</v>
+      </c>
+      <c r="D9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>1</v>
-      </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>318</v>
       </c>
       <c r="F9" t="s">
-        <v>209</v>
+        <v>167</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>270</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1894,48 +1891,48 @@
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="O9" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P9" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="Q9" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="R9" s="6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="S9" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T9" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="E10" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
@@ -1944,155 +1941,155 @@
         <v>1</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="O10" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="R10" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>320</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
+        <v>218</v>
+      </c>
+      <c r="D11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" t="s">
+        <v>220</v>
+      </c>
+      <c r="F11" t="s">
+        <v>221</v>
+      </c>
+      <c r="H11" t="s">
+        <v>222</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
+        <v>223</v>
+      </c>
+      <c r="O11" t="s">
         <v>260</v>
       </c>
-      <c r="D11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="P11" t="s">
         <v>262</v>
       </c>
-      <c r="F11" t="s">
-        <v>263</v>
-      </c>
-      <c r="H11" t="s">
-        <v>264</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" t="s">
-        <v>265</v>
-      </c>
-      <c r="O11" t="s">
-        <v>302</v>
-      </c>
-      <c r="P11" t="s">
-        <v>304</v>
-      </c>
       <c r="Q11" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="R11" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S11" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B12"/>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L12" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M12" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P12" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="Q12" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="S12" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D13" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E13" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="F13" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J13" s="6">
         <v>1</v>
@@ -2101,46 +2098,46 @@
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N13" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="O13" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q13" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R13" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S13" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D14" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E14" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="F14" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="H14" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2149,49 +2146,49 @@
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P14" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q14" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R14" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S14" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>300</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D15" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="F15" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="H15" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
@@ -2200,46 +2197,46 @@
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q15" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R15" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S15" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D16" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E16" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="H16" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J16" s="6">
         <v>1</v>
@@ -2248,46 +2245,46 @@
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N16" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="O16" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P16" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q16" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R16" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S16" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D17" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="F17" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="H17" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -2296,46 +2293,46 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="O17" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P17" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q17" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R17" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S17" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D18" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E18" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="F18" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="H18" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J18" s="6">
         <v>1</v>
@@ -2344,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N18" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
       <c r="O18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R18" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S18" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D19" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E19" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
       <c r="F19" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
       <c r="H19" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -2392,46 +2389,46 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
       <c r="O19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S19" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E20" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
       <c r="F20" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
       <c r="H20" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J20" s="6">
         <v>1</v>
@@ -2440,46 +2437,46 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N20" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
       <c r="O20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R20" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S20" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
       <c r="H21" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
@@ -2488,46 +2485,46 @@
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="O21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R21" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S21" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D22" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E22" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="F22" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="H22" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="J22" s="6">
         <v>1</v>
@@ -2536,45 +2533,45 @@
         <v>1</v>
       </c>
       <c r="M22" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N22" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="O22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R22" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S22" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -2583,43 +2580,43 @@
         <v>1</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B24"/>
       <c r="C24" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="J24" s="6">
         <v>1</v>
@@ -2628,43 +2625,43 @@
         <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q24" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S24" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B25"/>
       <c r="C25" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>171</v>
+        <v>129</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2676,40 +2673,40 @@
         <v>1</v>
       </c>
       <c r="M25" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O25" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S25" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B26"/>
       <c r="C26" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>172</v>
+        <v>130</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -2721,40 +2718,40 @@
         <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O26" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S26" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B27"/>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>173</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>213</v>
+        <v>171</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2766,40 +2763,40 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O27" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="R27" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S27" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B28"/>
       <c r="C28" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>87</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2811,43 +2808,43 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O28" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q28" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R28" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S28" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T28" t="s">
-        <v>116</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B29"/>
       <c r="C29" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>132</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2859,43 +2856,43 @@
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O29" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P29" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q29" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="S29" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T29" s="7" t="s">
-        <v>113</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B30"/>
       <c r="C30" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>175</v>
+        <v>133</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2907,43 +2904,43 @@
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O30" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q30" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>117</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B31"/>
       <c r="C31" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -2955,41 +2952,41 @@
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P31" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="Q31" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S31" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="T31" s="8"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B32"/>
       <c r="C32" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
@@ -3001,40 +2998,40 @@
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O32" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="Q32" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="S32" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B33"/>
       <c r="C33" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>217</v>
+        <v>175</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3046,43 +3043,43 @@
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O33" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="P33" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="Q33" t="s">
-        <v>118</v>
+        <v>76</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="S33" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B34"/>
       <c r="C34" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>218</v>
+        <v>176</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3094,43 +3091,43 @@
         <v>1</v>
       </c>
       <c r="L34" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M34" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="Q34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="R34" s="6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="S34" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B35"/>
       <c r="C35" s="7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3142,45 +3139,45 @@
         <v>1</v>
       </c>
       <c r="L35" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M35" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O35" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="Q35" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="R35" s="6" t="s">
-        <v>111</v>
+        <v>69</v>
       </c>
       <c r="S35" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T35" s="8" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>18</v>
-      </c>
       <c r="D36" s="3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>181</v>
+        <v>139</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>220</v>
+        <v>178</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3192,44 +3189,44 @@
         <v>1</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N36" s="23"/>
       <c r="O36" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P36" s="5" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="Q36" s="5" t="s">
-        <v>114</v>
+        <v>72</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S36" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B37"/>
       <c r="C37" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>221</v>
+        <v>179</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3241,43 +3238,43 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O37" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P37" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q37" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S37" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T37" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B38"/>
       <c r="C38" s="7" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>183</v>
+        <v>141</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>222</v>
+        <v>180</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3289,88 +3286,88 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O38" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P38" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q38" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S38" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T38" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>181</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="M39" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O39" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P39" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="Q39" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="R39" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S39" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T39" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>224</v>
+        <v>182</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3379,46 +3376,46 @@
         <v>0</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="M40" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O40" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P40" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="Q40" t="s">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
       <c r="S40" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T40" t="s">
-        <v>122</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E41" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>225</v>
+        <v>183</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
@@ -3427,43 +3424,43 @@
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O41" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q41" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>145</v>
+        <v>103</v>
       </c>
       <c r="S41" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T41" t="s">
-        <v>150</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D42" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>31</v>
+        <v>319</v>
       </c>
       <c r="F42" t="s">
-        <v>226</v>
+        <v>184</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
@@ -3472,43 +3469,43 @@
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O42" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P42" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q42" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R42" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S42" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>28</v>
+        <v>280</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>32</v>
+        <v>289</v>
       </c>
       <c r="F43" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -3517,40 +3514,40 @@
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O43" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P43" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="Q43" t="s">
-        <v>124</v>
+        <v>82</v>
       </c>
       <c r="R43" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S43" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="D44" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>290</v>
       </c>
       <c r="F44" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
@@ -3559,43 +3556,43 @@
         <v>1</v>
       </c>
       <c r="M44" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" t="s">
+        <v>104</v>
+      </c>
+      <c r="P44" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>104</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" t="s">
+        <v>41</v>
+      </c>
+      <c r="T44" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="O44" t="s">
-        <v>146</v>
-      </c>
-      <c r="P44" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q44" t="s">
-        <v>146</v>
-      </c>
-      <c r="R44" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S44" t="s">
-        <v>83</v>
-      </c>
-      <c r="T44" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="D45" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>36</v>
+        <v>291</v>
       </c>
       <c r="F45" t="s">
-        <v>229</v>
+        <v>187</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -3604,43 +3601,43 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O45" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q45" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R45" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S45" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T45" s="8" t="s">
-        <v>126</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="D46" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>37</v>
+        <v>292</v>
       </c>
       <c r="F46" t="s">
-        <v>230</v>
+        <v>188</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -3649,43 +3646,43 @@
         <v>1</v>
       </c>
       <c r="M46" t="s">
+        <v>41</v>
+      </c>
+      <c r="O46" t="s">
+        <v>104</v>
+      </c>
+      <c r="P46" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>104</v>
+      </c>
+      <c r="R46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S46" t="s">
+        <v>41</v>
+      </c>
+      <c r="T46" s="8" t="s">
         <v>83</v>
-      </c>
-      <c r="O46" t="s">
-        <v>146</v>
-      </c>
-      <c r="P46" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>146</v>
-      </c>
-      <c r="R46" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="S46" t="s">
-        <v>83</v>
-      </c>
-      <c r="T46" s="8" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="D47" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>293</v>
       </c>
       <c r="F47" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
@@ -3694,42 +3691,42 @@
         <v>1</v>
       </c>
       <c r="L47" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M47" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O47" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P47" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="Q47" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="R47" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="S47" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>33</v>
+        <v>281</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>232</v>
+        <v>190</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -3738,44 +3735,44 @@
         <v>1</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N48" s="23"/>
       <c r="O48" s="2" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P48" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="R48" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S48" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B49"/>
       <c r="C49" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>42</v>
+        <v>294</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>233</v>
+        <v>191</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3787,40 +3784,40 @@
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O49" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="Q49" t="s">
-        <v>169</v>
+        <v>127</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>319</v>
+        <v>277</v>
       </c>
       <c r="S49" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B50"/>
       <c r="C50" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>43</v>
+        <v>295</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3832,40 +3829,40 @@
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O50" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P50" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="Q50" t="s">
-        <v>129</v>
+        <v>87</v>
       </c>
       <c r="R50" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S50" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B51"/>
       <c r="C51" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3877,40 +3874,40 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O51" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P51" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="Q51" t="s">
-        <v>131</v>
+        <v>89</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="S51" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B52"/>
       <c r="C52" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>45</v>
+        <v>296</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3922,43 +3919,43 @@
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O52" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P52" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q52" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S52" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T52" t="s">
-        <v>132</v>
+        <v>90</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B53"/>
       <c r="C53" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3970,43 +3967,43 @@
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="S53" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T53" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B54"/>
       <c r="C54" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -4018,43 +4015,43 @@
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R54" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S54" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T54" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B55"/>
       <c r="C55" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>47</v>
+        <v>298</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4066,43 +4063,43 @@
         <v>1</v>
       </c>
       <c r="L55" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M55" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O55" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P55" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="Q55" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="R55" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S55" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B56"/>
       <c r="C56" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>48</v>
+        <v>299</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4114,43 +4111,43 @@
         <v>1</v>
       </c>
       <c r="L56" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M56" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O56" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P56" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="Q56" t="s">
-        <v>134</v>
+        <v>92</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>187</v>
+        <v>145</v>
       </c>
       <c r="S56" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B57"/>
       <c r="C57" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>49</v>
+        <v>300</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4162,46 +4159,46 @@
         <v>1</v>
       </c>
       <c r="L57" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M57" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O57" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P57" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="Q57" t="s">
-        <v>130</v>
+        <v>88</v>
       </c>
       <c r="R57" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S57" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T57" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B58"/>
       <c r="C58" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>51</v>
+        <v>301</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -4213,43 +4210,43 @@
         <v>1</v>
       </c>
       <c r="L58" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M58" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O58" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P58" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="Q58" t="s">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="R58" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="S58" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B59"/>
       <c r="C59" s="7" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>52</v>
+        <v>302</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4261,42 +4258,42 @@
         <v>1</v>
       </c>
       <c r="L59" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M59" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O59" t="s">
+        <v>86</v>
+      </c>
+      <c r="P59" t="s">
         <v>128</v>
       </c>
-      <c r="P59" t="s">
-        <v>170</v>
-      </c>
       <c r="Q59" t="s">
-        <v>170</v>
+        <v>128</v>
       </c>
       <c r="R59" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S59" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>96</v>
+        <v>54</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4308,44 +4305,44 @@
         <v>1</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="N60" s="23"/>
       <c r="O60" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P60" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q60" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R60" s="3" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S60" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="7" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4357,43 +4354,43 @@
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R61" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="S61" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T61" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="7" t="s">
-        <v>53</v>
+        <v>282</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4405,40 +4402,40 @@
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q62" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="S62" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="D63" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>58</v>
+        <v>303</v>
       </c>
       <c r="F63" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
@@ -4447,43 +4444,43 @@
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O63" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P63" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q63" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R63" s="1" t="s">
-        <v>107</v>
+        <v>65</v>
       </c>
       <c r="S63" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T63" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="D64" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>59</v>
+        <v>304</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
@@ -4492,90 +4489,90 @@
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q64" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R64" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S64" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T64" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
+        <v>283</v>
+      </c>
+      <c r="D65" t="s">
+        <v>33</v>
+      </c>
+      <c r="E65" t="s">
+        <v>305</v>
+      </c>
+      <c r="F65" t="s">
+        <v>206</v>
+      </c>
+      <c r="J65" s="6">
+        <v>1</v>
+      </c>
+      <c r="K65" s="9">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>41</v>
+      </c>
+      <c r="M65" t="s">
+        <v>42</v>
+      </c>
+      <c r="O65" t="s">
+        <v>4</v>
+      </c>
+      <c r="P65" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>4</v>
+      </c>
+      <c r="R65" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D65" t="s">
-        <v>57</v>
-      </c>
-      <c r="E65" t="s">
-        <v>60</v>
-      </c>
-      <c r="F65" t="s">
-        <v>248</v>
-      </c>
-      <c r="J65" s="6">
-        <v>1</v>
-      </c>
-      <c r="K65" s="9">
-        <v>1</v>
-      </c>
-      <c r="L65" t="s">
-        <v>83</v>
-      </c>
-      <c r="M65" t="s">
-        <v>84</v>
-      </c>
-      <c r="O65" t="s">
-        <v>9</v>
-      </c>
-      <c r="P65" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q65" t="s">
-        <v>9</v>
-      </c>
-      <c r="R65" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="S65" s="1" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T65" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>56</v>
+        <v>283</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>61</v>
+        <v>306</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="J66" s="16">
         <v>1</v>
@@ -4584,89 +4581,89 @@
         <v>1</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N66" s="23"/>
       <c r="O66" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P66" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q66" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R66" s="3" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S66" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T66" s="2" t="s">
-        <v>119</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E67" t="s">
+        <v>307</v>
+      </c>
+      <c r="F67" t="s">
+        <v>208</v>
+      </c>
+      <c r="J67" s="6">
+        <v>1</v>
+      </c>
+      <c r="K67" s="9">
+        <v>1</v>
+      </c>
+      <c r="M67" t="s">
+        <v>42</v>
+      </c>
+      <c r="O67" t="s">
+        <v>86</v>
+      </c>
+      <c r="P67" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>96</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F67" t="s">
-        <v>250</v>
-      </c>
-      <c r="J67" s="6">
-        <v>1</v>
-      </c>
-      <c r="K67" s="9">
-        <v>1</v>
-      </c>
-      <c r="M67" t="s">
-        <v>84</v>
-      </c>
-      <c r="O67" t="s">
-        <v>128</v>
-      </c>
-      <c r="P67" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>138</v>
-      </c>
-      <c r="R67" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="S67" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>65</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -4675,43 +4672,43 @@
         <v>1</v>
       </c>
       <c r="L68" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M68" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O68" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P68" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="Q68" t="s">
-        <v>136</v>
+        <v>94</v>
       </c>
       <c r="R68" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S68" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>62</v>
+        <v>284</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>66</v>
+        <v>309</v>
       </c>
       <c r="F69" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
@@ -4720,43 +4717,43 @@
         <v>1</v>
       </c>
       <c r="L69" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="M69" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O69" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P69" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="Q69" t="s">
-        <v>139</v>
+        <v>97</v>
       </c>
       <c r="R69" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S69" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B70"/>
       <c r="C70" s="7" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>69</v>
+        <v>310</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4768,43 +4765,43 @@
         <v>1</v>
       </c>
       <c r="M70" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O70" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P70" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q70" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R70" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S70" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T70" t="s">
-        <v>142</v>
+        <v>100</v>
       </c>
     </row>
     <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B71"/>
       <c r="C71" s="7" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>70</v>
+        <v>311</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4816,40 +4813,40 @@
         <v>1</v>
       </c>
       <c r="M71" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O71" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P71" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="Q71" t="s">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="R71" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S71" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B72"/>
       <c r="C72" s="7" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="J72" s="6">
         <v>0</v>
@@ -4858,40 +4855,40 @@
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O72" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P72" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="Q72" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="R72" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="S72" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="7" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>58</v>
       </c>
       <c r="J73" s="6">
         <v>0</v>
@@ -4900,40 +4897,40 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="O73" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P73" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="Q73" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="R73" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="S73" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>71</v>
+        <v>286</v>
       </c>
       <c r="D74" t="s">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>73</v>
+        <v>312</v>
       </c>
       <c r="F74" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="J74" s="6">
         <v>1</v>
@@ -4942,46 +4939,46 @@
         <v>1</v>
       </c>
       <c r="L74" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="M74" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O74" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="P74" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="Q74" t="s">
-        <v>146</v>
+        <v>104</v>
       </c>
       <c r="R74" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S74" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="T74" t="s">
-        <v>143</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>75</v>
+        <v>287</v>
       </c>
       <c r="D75" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>77</v>
+        <v>313</v>
       </c>
       <c r="F75" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -4990,40 +4987,40 @@
         <v>1</v>
       </c>
       <c r="M75" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O75" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="Q75" t="s">
-        <v>144</v>
+        <v>102</v>
       </c>
       <c r="R75" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S75" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="D76" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E76" t="s">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5032,43 +5029,43 @@
         <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q76" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R76" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S76" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>81</v>
+        <v>314</v>
       </c>
       <c r="F77" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5077,42 +5074,42 @@
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="O77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R77" s="1" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S77" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>78</v>
+        <v>288</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>79</v>
+        <v>39</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>82</v>
+        <v>315</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="J78" s="20">
         <v>0</v>
@@ -5121,728 +5118,728 @@
         <v>1</v>
       </c>
       <c r="M78" s="11" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="N78" s="24"/>
       <c r="O78" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="P78" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q78" s="11" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="R78" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="S78" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T78" s="13" t="s">
         <v>106</v>
-      </c>
-      <c r="S78" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="T78" s="13" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B79"/>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F79" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G79" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L79" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M79" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O79" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P79" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="Q79" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="S79" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B80"/>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G80" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L80" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M80" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O80" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P80" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="Q80" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="S80" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B81"/>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G81" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H81" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I81" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J81" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K81" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L81" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M81" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O81" t="s">
-        <v>104</v>
+        <v>62</v>
       </c>
       <c r="P81" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="Q81" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="R81" s="1" t="s">
-        <v>167</v>
+        <v>125</v>
       </c>
       <c r="S81" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B82"/>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G82" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I82" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J82" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K82" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L82" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M82" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O82" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P82" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="Q82" t="s">
-        <v>153</v>
+        <v>111</v>
       </c>
       <c r="R82" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S82" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B83"/>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G83" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H83" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I83" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J83" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K83" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L83" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M83" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O83" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P83" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="Q83" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="R83" t="s">
-        <v>159</v>
+        <v>117</v>
       </c>
       <c r="S83" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B84"/>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H84" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I84" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J84" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K84" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L84" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M84" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O84" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P84" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="Q84" t="s">
-        <v>155</v>
+        <v>113</v>
       </c>
       <c r="R84" s="6" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="S84" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B85"/>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H85" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I85" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J85" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L85" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M85" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O85" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P85" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="Q85" t="s">
-        <v>156</v>
+        <v>114</v>
       </c>
       <c r="R85" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S85" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B86"/>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I86" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J86" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L86" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M86" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O86" t="s">
-        <v>128</v>
+        <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="Q86" t="s">
-        <v>318</v>
+        <v>276</v>
       </c>
       <c r="R86" t="s">
-        <v>112</v>
+        <v>70</v>
       </c>
       <c r="S86" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B87"/>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>274</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I87" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J87" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K87" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L87" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M87" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O87" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P87" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="Q87" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="R87" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S87" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B88"/>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>275</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H88" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I88" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J88" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K88" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L88" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M88" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O88" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P88" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="Q88" t="s">
-        <v>165</v>
+        <v>123</v>
       </c>
       <c r="R88" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
       <c r="S88" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B89"/>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I89" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J89" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K89" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L89" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M89" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O89" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P89" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="Q89" t="s">
-        <v>157</v>
+        <v>115</v>
       </c>
       <c r="R89" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S89" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B90"/>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I90" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J90" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K90" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L90" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M90" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O90" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P90" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="Q90" t="s">
-        <v>158</v>
+        <v>116</v>
       </c>
       <c r="R90" s="1" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="S90" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B91"/>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G91" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="I91" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="J91" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="K91" s="6" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="L91" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="M91" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="O91" t="s">
-        <v>102</v>
+        <v>60</v>
       </c>
       <c r="P91" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="Q91" t="s">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>149</v>
+        <v>107</v>
       </c>
       <c r="S91" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{543E1B20-C4F6-4956-82B1-51777C0B0CE6}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686BE1E4-2399-42E8-91F0-6B3915CF21F2}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="322">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -459,9 +459,6 @@
     <t>QualityRegime</t>
   </si>
   <si>
-    <t>WellID</t>
-  </si>
-  <si>
     <t>[ID]</t>
   </si>
   <si>
@@ -988,6 +985,15 @@
   </si>
   <si>
     <t>CRS</t>
+  </si>
+  <si>
+    <t>Lokaal (bron-)ID, voor relaties met andere objecten, objecten zonder BRO-ID , willekeurige brondataselectie</t>
+  </si>
+  <si>
+    <t>GMWID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opname van ID bij 1 : n relatie vereenvoudigt tabeloperaties (bijv. innerjoin) </t>
   </si>
 </sst>
 </file>
@@ -1446,98 +1452,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E44" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2790" ySplit="690" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="O44" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2820" ySplit="720" topLeftCell="P1" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
-      <selection pane="bottomRight" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="O3" sqref="A3:XFD4"/>
+      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>157</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="21" t="s">
         <v>158</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>163</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>164</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1567,22 +1573,25 @@
         <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P2" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>320</v>
+      </c>
+      <c r="R2" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" t="s">
-        <v>143</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="S2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1615,19 +1624,22 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>320</v>
+      </c>
+      <c r="R3" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="Q3" t="s">
-        <v>143</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="S3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1660,19 +1672,22 @@
         <v>62</v>
       </c>
       <c r="P4" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>320</v>
+      </c>
+      <c r="R4" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="Q4" t="s">
-        <v>143</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>144</v>
-      </c>
       <c r="S4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="T4" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1683,10 +1698,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>47</v>
@@ -1711,34 +1726,34 @@
         <v>127</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1750,7 +1765,7 @@
         <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P6" t="s">
         <v>59</v>
@@ -1765,25 +1780,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1795,10 +1810,10 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P7" t="s">
         <v>61</v>
@@ -1816,25 +1831,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1846,7 +1861,7 @@
         <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O8" t="s">
         <v>60</v>
@@ -1864,25 +1879,25 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1894,16 +1909,16 @@
         <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Q9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>69</v>
@@ -1915,12 +1930,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
@@ -1929,10 +1944,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
@@ -1944,10 +1959,10 @@
         <v>42</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P10" s="2" t="s">
         <v>142</v>
@@ -1962,49 +1977,49 @@
         <v>42</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
         <v>218</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>219</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>220</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>221</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
         <v>222</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" t="s">
-        <v>223</v>
-      </c>
       <c r="O11" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="Q11" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="R11" t="s">
         <v>126</v>
@@ -2013,7 +2028,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2053,13 +2068,13 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
+        <v>259</v>
+      </c>
+      <c r="P12" t="s">
         <v>260</v>
       </c>
-      <c r="P12" t="s">
-        <v>261</v>
-      </c>
       <c r="Q12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>65</v>
@@ -2068,40 +2083,40 @@
         <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D13" t="s">
         <v>218</v>
       </c>
-      <c r="D13" t="s">
-        <v>219</v>
-      </c>
       <c r="E13" t="s">
+        <v>223</v>
+      </c>
+      <c r="F13" t="s">
         <v>224</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>225</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
         <v>226</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" t="s">
-        <v>227</v>
       </c>
       <c r="O13" t="s">
         <v>104</v>
@@ -2119,25 +2134,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" t="s">
         <v>218</v>
       </c>
-      <c r="D14" t="s">
-        <v>219</v>
-      </c>
       <c r="E14" t="s">
+        <v>227</v>
+      </c>
+      <c r="F14" t="s">
         <v>228</v>
       </c>
-      <c r="F14" t="s">
-        <v>229</v>
-      </c>
       <c r="H14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2149,7 +2164,7 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="O14" t="s">
         <v>104</v>
@@ -2167,28 +2182,28 @@
         <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D15" t="s">
         <v>218</v>
       </c>
-      <c r="D15" t="s">
-        <v>219</v>
-      </c>
       <c r="E15" t="s">
+        <v>230</v>
+      </c>
+      <c r="F15" t="s">
         <v>231</v>
       </c>
-      <c r="F15" t="s">
-        <v>232</v>
-      </c>
       <c r="H15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
@@ -2200,7 +2215,7 @@
         <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="O15" t="s">
         <v>104</v>
@@ -2218,37 +2233,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
+        <v>217</v>
+      </c>
+      <c r="D16" t="s">
         <v>218</v>
       </c>
-      <c r="D16" t="s">
-        <v>219</v>
-      </c>
       <c r="E16" t="s">
+        <v>233</v>
+      </c>
+      <c r="F16" t="s">
         <v>234</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>225</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
         <v>235</v>
-      </c>
-      <c r="H16" t="s">
-        <v>226</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>236</v>
       </c>
       <c r="O16" t="s">
         <v>104</v>
@@ -2266,25 +2281,25 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
+        <v>217</v>
+      </c>
+      <c r="D17" t="s">
         <v>218</v>
       </c>
-      <c r="D17" t="s">
-        <v>219</v>
-      </c>
       <c r="E17" t="s">
+        <v>236</v>
+      </c>
+      <c r="F17" t="s">
         <v>237</v>
       </c>
-      <c r="F17" t="s">
-        <v>238</v>
-      </c>
       <c r="H17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -2296,7 +2311,7 @@
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="O17" t="s">
         <v>104</v>
@@ -2314,37 +2329,37 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
         <v>218</v>
       </c>
-      <c r="D18" t="s">
-        <v>219</v>
-      </c>
       <c r="E18" t="s">
+        <v>239</v>
+      </c>
+      <c r="F18" t="s">
         <v>240</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
         <v>241</v>
-      </c>
-      <c r="H18" t="s">
-        <v>226</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" t="s">
-        <v>242</v>
       </c>
       <c r="O18" t="s">
         <v>4</v>
@@ -2362,25 +2377,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
+        <v>217</v>
+      </c>
+      <c r="D19" t="s">
         <v>218</v>
       </c>
-      <c r="D19" t="s">
-        <v>219</v>
-      </c>
       <c r="E19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" t="s">
         <v>243</v>
       </c>
-      <c r="F19" t="s">
-        <v>244</v>
-      </c>
       <c r="H19" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -2392,7 +2407,7 @@
         <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="O19" t="s">
         <v>4</v>
@@ -2410,37 +2425,37 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
         <v>218</v>
       </c>
-      <c r="D20" t="s">
-        <v>219</v>
-      </c>
       <c r="E20" t="s">
+        <v>245</v>
+      </c>
+      <c r="F20" t="s">
         <v>246</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>225</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
         <v>247</v>
-      </c>
-      <c r="H20" t="s">
-        <v>226</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" t="s">
-        <v>248</v>
       </c>
       <c r="O20" t="s">
         <v>4</v>
@@ -2458,25 +2473,25 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
+        <v>217</v>
+      </c>
+      <c r="D21" t="s">
         <v>218</v>
       </c>
-      <c r="D21" t="s">
-        <v>219</v>
-      </c>
       <c r="E21" t="s">
+        <v>248</v>
+      </c>
+      <c r="F21" t="s">
         <v>249</v>
       </c>
-      <c r="F21" t="s">
-        <v>250</v>
-      </c>
       <c r="H21" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
@@ -2488,7 +2503,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -2506,37 +2521,37 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
+        <v>217</v>
+      </c>
+      <c r="D22" t="s">
         <v>218</v>
       </c>
-      <c r="D22" t="s">
-        <v>219</v>
-      </c>
       <c r="E22" t="s">
+        <v>251</v>
+      </c>
+      <c r="F22" t="s">
         <v>252</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>225</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
         <v>253</v>
-      </c>
-      <c r="H22" t="s">
-        <v>226</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" t="s">
-        <v>254</v>
       </c>
       <c r="O22" t="s">
         <v>4</v>
@@ -2554,24 +2569,24 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -2583,7 +2598,7 @@
         <v>42</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>4</v>
@@ -2601,7 +2616,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2646,7 +2661,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2657,17 +2672,17 @@
       <c r="D25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>129</v>
+      <c r="E25" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="6">
         <v>1</v>
@@ -2678,20 +2693,23 @@
       <c r="O25" t="s">
         <v>60</v>
       </c>
-      <c r="P25" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>15</v>
+      <c r="P25" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>76</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="S25" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2703,16 +2721,16 @@
         <v>14</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="6">
         <v>1</v>
@@ -2723,20 +2741,20 @@
       <c r="O26" t="s">
         <v>60</v>
       </c>
-      <c r="P26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>16</v>
+      <c r="P26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>18</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="S26" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2748,10 +2766,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2762,26 +2780,29 @@
       <c r="K27" s="6">
         <v>1</v>
       </c>
+      <c r="L27" t="s">
+        <v>41</v>
+      </c>
       <c r="M27" t="s">
         <v>42</v>
       </c>
       <c r="O27" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="1" t="s">
-        <v>64</v>
+      <c r="P27" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>21</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="S27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2793,43 +2814,46 @@
         <v>14</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="6">
         <v>1</v>
       </c>
+      <c r="L28" t="s">
+        <v>41</v>
+      </c>
       <c r="M28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O28" t="s">
-        <v>104</v>
+        <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="Q28" t="s">
-        <v>104</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>66</v>
+        <v>120</v>
+      </c>
+      <c r="R28" s="6" t="s">
+        <v>69</v>
       </c>
       <c r="S28" t="s">
-        <v>41</v>
-      </c>
-      <c r="T28" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2841,10 +2865,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2859,25 +2883,22 @@
         <v>42</v>
       </c>
       <c r="O29" t="s">
-        <v>104</v>
-      </c>
-      <c r="P29" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q29" s="7" t="s">
+        <v>15</v>
       </c>
       <c r="R29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="S29" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T29" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="S29" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2889,10 +2910,10 @@
         <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2907,25 +2928,22 @@
         <v>42</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
-      </c>
-      <c r="P30" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>104</v>
+        <v>60</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="R30" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="S30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2937,16 +2955,16 @@
         <v>14</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" s="6">
         <v>1</v>
@@ -2957,21 +2975,20 @@
       <c r="O31" t="s">
         <v>60</v>
       </c>
-      <c r="P31" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>259</v>
+      <c r="P31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="R31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="S31" t="s">
-        <v>47</v>
-      </c>
-      <c r="T31" s="8"/>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -2983,40 +3000,43 @@
         <v>14</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="Q32" t="s">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="S32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="T32" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3027,17 +3047,17 @@
       <c r="D33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>136</v>
+      <c r="E33" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6">
         <v>1</v>
@@ -3046,25 +3066,25 @@
         <v>42</v>
       </c>
       <c r="O33" t="s">
-        <v>260</v>
+        <v>104</v>
       </c>
       <c r="P33" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="Q33" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="R33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="S33" t="s">
-        <v>42</v>
-      </c>
-      <c r="T33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T33" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3076,10 +3096,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3090,29 +3110,29 @@
       <c r="K34" s="6">
         <v>1</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O34" t="s">
+        <v>104</v>
+      </c>
+      <c r="P34" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>104</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="S34" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="M34" t="s">
-        <v>42</v>
-      </c>
-      <c r="O34" t="s">
-        <v>60</v>
-      </c>
-      <c r="P34" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>21</v>
-      </c>
-      <c r="R34" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="S34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="T34" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3124,10 +3144,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3138,9 +3158,6 @@
       <c r="K35" s="6">
         <v>1</v>
       </c>
-      <c r="L35" t="s">
-        <v>41</v>
-      </c>
       <c r="M35" t="s">
         <v>42</v>
       </c>
@@ -3148,22 +3165,20 @@
         <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>120</v>
+        <v>258</v>
       </c>
       <c r="Q35" t="s">
-        <v>120</v>
-      </c>
-      <c r="R35" s="6" t="s">
-        <v>69</v>
+        <v>258</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="S35" t="s">
-        <v>42</v>
-      </c>
-      <c r="T35" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="T35" s="8"/>
+    </row>
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -3177,7 +3192,7 @@
         <v>139</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3211,7 +3226,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3226,7 +3241,7 @@
         <v>140</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3259,7 +3274,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3289,7 @@
         <v>141</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3307,13 +3322,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -3322,7 +3337,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -3352,13 +3367,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -3367,7 +3382,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3400,13 +3415,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3415,7 +3430,7 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
@@ -3445,22 +3460,22 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F42" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
@@ -3490,22 +3505,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F43" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -3532,22 +3547,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F44" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
@@ -3577,22 +3592,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -3622,22 +3637,22 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F46" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -3667,22 +3682,22 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
@@ -3712,12 +3727,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>25</v>
@@ -3726,7 +3741,7 @@
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -3757,7 +3772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3769,10 +3784,10 @@
         <v>28</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3796,13 +3811,13 @@
         <v>127</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="S49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3814,10 +3829,10 @@
         <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3847,7 +3862,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3862,7 +3877,7 @@
         <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3886,13 +3901,13 @@
         <v>89</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S51" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3904,10 +3919,10 @@
         <v>28</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3940,7 +3955,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3952,10 +3967,10 @@
         <v>28</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -3988,7 +4003,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4036,7 +4051,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4048,10 +4063,10 @@
         <v>28</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4084,7 +4099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4096,10 +4111,10 @@
         <v>28</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4126,13 +4141,13 @@
         <v>92</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="S56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4144,10 +4159,10 @@
         <v>28</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4183,7 +4198,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4195,10 +4210,10 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -4231,7 +4246,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4243,10 +4258,10 @@
         <v>28</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4279,7 +4294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4293,7 +4308,7 @@
         <v>54</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4327,13 +4342,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>31</v>
@@ -4342,7 +4357,7 @@
         <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4375,13 +4390,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -4390,7 +4405,7 @@
         <v>55</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4420,22 +4435,22 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
@@ -4465,22 +4480,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
@@ -4510,22 +4525,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
@@ -4558,21 +4573,21 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J66" s="16">
         <v>1</v>
@@ -4606,22 +4621,22 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F67" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J67" s="6">
         <v>1</v>
@@ -4648,22 +4663,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -4693,22 +4708,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
@@ -4738,22 +4753,22 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
       <c r="B70"/>
       <c r="C70" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4786,22 +4801,22 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="B71"/>
       <c r="C71" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4831,13 +4846,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72"/>
       <c r="C72" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>35</v>
@@ -4873,13 +4888,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>35</v>
@@ -4915,19 +4930,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -4963,22 +4978,22 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -5005,13 +5020,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
@@ -5020,7 +5035,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5050,22 +5065,22 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F77" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5095,21 +5110,21 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J78" s="20">
         <v>0</v>
@@ -5140,7 +5155,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -5194,7 +5209,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5248,7 +5263,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5302,7 +5317,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5356,7 +5371,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5425,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5464,7 +5479,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5518,7 +5533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5560,10 +5575,10 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="Q86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="R86" t="s">
         <v>70</v>
@@ -5572,7 +5587,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5587,7 +5602,7 @@
         <v>122</v>
       </c>
       <c r="F87" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>47</v>
@@ -5626,7 +5641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5641,7 +5656,7 @@
         <v>123</v>
       </c>
       <c r="F88" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>47</v>
@@ -5680,7 +5695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5734,7 +5749,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5788,7 +5803,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{686BE1E4-2399-42E8-91F0-6B3915CF21F2}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5179EF-B8A8-494B-B876-461142FD7826}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1195" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="323">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -855,9 +855,6 @@
     <t>Y-coördinaat</t>
   </si>
   <si>
-    <t>GLDBROID</t>
-  </si>
-  <si>
     <t>[Uint8]</t>
   </si>
   <si>
@@ -994,6 +991,12 @@
   </si>
   <si>
     <t xml:space="preserve">Opname van ID bij 1 : n relatie vereenvoudigt tabeloperaties (bijv. innerjoin) </t>
+  </si>
+  <si>
+    <t>Gekoppeld aan gebeurtenis objectUitRegistratie en d.Adm.IsWellDrgstrd</t>
+  </si>
+  <si>
+    <t>GLDID</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1146,6 +1149,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,35 +1466,35 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O44" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2820" ySplit="720" topLeftCell="P1" activePane="bottomRight"/>
+      <pane xSplit="2865" ySplit="705" topLeftCell="I1" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="A3:XFD4"/>
-      <selection pane="bottomRight" activeCell="T13" sqref="T13"/>
+      <selection pane="bottomLeft" activeCell="O4" sqref="A4:XFD4"/>
+      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>148</v>
       </c>
@@ -1543,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1576,10 +1589,10 @@
         <v>259</v>
       </c>
       <c r="P2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>143</v>
@@ -1588,10 +1601,10 @@
         <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1624,10 +1637,10 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>143</v>
@@ -1636,10 +1649,10 @@
         <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1672,10 +1685,10 @@
         <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>143</v>
@@ -1684,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>190</v>
@@ -1726,7 +1739,7 @@
         <v>127</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>42</v>
@@ -1735,13 +1748,13 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1780,19 +1793,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
         <v>164</v>
@@ -1831,19 +1844,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
         <v>165</v>
@@ -1879,19 +1892,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F9" t="s">
         <v>166</v>
@@ -1930,12 +1943,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
@@ -1977,10 +1990,10 @@
         <v>42</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2028,7 +2041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2086,7 +2099,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2134,7 +2147,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2185,7 +2198,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2233,7 +2246,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2281,7 +2294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2329,7 +2342,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2377,7 +2390,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2425,7 +2438,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2472,8 +2485,11 @@
       <c r="S20" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2521,7 +2537,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2569,7 +2585,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2616,7 +2632,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2677,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2709,7 +2725,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2754,7 +2770,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2802,7 +2818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2853,7 +2869,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2898,7 +2914,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2943,7 +2959,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2988,7 +3004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3036,7 +3052,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3084,7 +3100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3132,7 +3148,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3178,7 +3194,7 @@
       </c>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -3226,7 +3242,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3274,7 +3290,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3322,7 +3338,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3367,7 +3383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3415,13 +3431,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3460,19 +3476,19 @@
         <v>108</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="F42" t="s">
         <v>183</v>
@@ -3505,19 +3521,19 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F43" t="s">
         <v>184</v>
@@ -3547,19 +3563,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F44" t="s">
         <v>185</v>
@@ -3592,19 +3608,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F45" t="s">
         <v>186</v>
@@ -3637,19 +3653,19 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F46" t="s">
         <v>187</v>
@@ -3682,19 +3698,19 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
         <v>188</v>
@@ -3727,12 +3743,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>25</v>
@@ -3772,7 +3788,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3784,7 +3800,7 @@
         <v>28</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>190</v>
@@ -3811,13 +3827,13 @@
         <v>127</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="S49" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3829,7 +3845,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>191</v>
@@ -3862,7 +3878,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3907,7 +3923,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3919,7 +3935,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>193</v>
@@ -3955,7 +3971,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3967,7 +3983,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>194</v>
@@ -4003,7 +4019,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4051,7 +4067,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4063,7 +4079,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>195</v>
@@ -4099,7 +4115,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4111,7 +4127,7 @@
         <v>28</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>196</v>
@@ -4147,7 +4163,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4159,7 +4175,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>197</v>
@@ -4198,7 +4214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4210,7 +4226,7 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>198</v>
@@ -4246,7 +4262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4258,7 +4274,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>199</v>
@@ -4294,7 +4310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4342,13 +4358,13 @@
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
       <c r="B61"/>
       <c r="C61" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>31</v>
@@ -4390,13 +4406,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
       <c r="B62"/>
       <c r="C62" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -4435,19 +4451,19 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F63" t="s">
         <v>203</v>
@@ -4480,19 +4496,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F64" t="s">
         <v>204</v>
@@ -4525,19 +4541,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F65" t="s">
         <v>205</v>
@@ -4573,18 +4589,18 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>206</v>
@@ -4621,19 +4637,19 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F67" t="s">
         <v>207</v>
@@ -4663,19 +4679,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F68" t="s">
         <v>208</v>
@@ -4708,19 +4724,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F69" t="s">
         <v>209</v>
@@ -4753,19 +4769,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
       <c r="B70"/>
       <c r="C70" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>210</v>
@@ -4801,19 +4817,19 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
       <c r="B71"/>
       <c r="C71" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>211</v>
@@ -4846,13 +4862,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
       <c r="B72"/>
       <c r="C72" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>35</v>
@@ -4888,13 +4904,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
       <c r="B73"/>
       <c r="C73" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>35</v>
@@ -4930,19 +4946,19 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -4978,19 +4994,19 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F75" t="s">
         <v>212</v>
@@ -5020,13 +5036,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
@@ -5065,19 +5081,19 @@
         <v>106</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F77" t="s">
         <v>214</v>
@@ -5110,18 +5126,18 @@
         <v>106</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>215</v>
@@ -5155,7 +5171,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -5209,7 +5225,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5263,7 +5279,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5317,7 +5333,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5387,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5412,20 +5428,21 @@
       <c r="O83" t="s">
         <v>86</v>
       </c>
-      <c r="P83" t="s">
+      <c r="P83" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="Q83" t="s">
+      <c r="Q83" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="R83" t="s">
+      <c r="R83" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="S83" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S83" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T83" s="25"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5466,20 +5483,21 @@
       <c r="O84" t="s">
         <v>86</v>
       </c>
-      <c r="P84" t="s">
+      <c r="P84" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="Q84" t="s">
+      <c r="Q84" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="R84" s="6" t="s">
+      <c r="R84" s="26" t="s">
         <v>107</v>
       </c>
-      <c r="S84" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S84" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T84" s="25"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5520,20 +5538,21 @@
       <c r="O85" t="s">
         <v>86</v>
       </c>
-      <c r="P85" t="s">
+      <c r="P85" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="Q85" t="s">
+      <c r="Q85" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="R85" s="1" t="s">
+      <c r="R85" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="S85" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S85" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T85" s="25"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5574,20 +5593,21 @@
       <c r="O86" t="s">
         <v>86</v>
       </c>
-      <c r="P86" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>275</v>
-      </c>
-      <c r="R86" t="s">
-        <v>70</v>
-      </c>
-      <c r="S86" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="P86" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q86" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="R86" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="S86" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T86" s="25"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5628,20 +5648,21 @@
       <c r="O87" t="s">
         <v>60</v>
       </c>
-      <c r="P87" t="s">
+      <c r="P87" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="Q87" t="s">
+      <c r="Q87" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="R87" t="s">
+      <c r="R87" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="S87" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S87" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T87" s="25"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5682,20 +5703,21 @@
       <c r="O88" t="s">
         <v>60</v>
       </c>
-      <c r="P88" t="s">
+      <c r="P88" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="Q88" s="25" t="s">
         <v>123</v>
       </c>
-      <c r="R88" t="s">
+      <c r="R88" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="S88" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S88" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="T88" s="25"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +5771,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5803,7 +5825,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="88" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0E5179EF-B8A8-494B-B876-461142FD7826}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0BD41C-31D8-423C-B627-F68BAB56B018}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5490" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -336,9 +336,6 @@
     <t>Afgeleid als [WellTopLevel - FilterTopLevel]</t>
   </si>
   <si>
-    <t xml:space="preserve">sedSumpLength          </t>
-  </si>
-  <si>
     <t>[CoördinatePair]</t>
   </si>
   <si>
@@ -997,6 +994,9 @@
   </si>
   <si>
     <t>GLDID</t>
+  </si>
+  <si>
+    <t>sedSumpLength</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1097,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1149,16 +1149,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1466,11 +1456,11 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O44" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2865" ySplit="705" topLeftCell="I1" activePane="bottomRight"/>
+      <pane xSplit="2865" ySplit="705" topLeftCell="M34" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="O20" sqref="O20"/>
+      <selection pane="bottomRight" activeCell="AA75" sqref="AA75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1496,61 +1486,61 @@
   <sheetData>
     <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>149</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="J1" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="K1" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="L1" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="N1" s="21" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="O1" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>161</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>162</v>
-      </c>
-      <c r="S1" s="14" t="s">
-        <v>163</v>
       </c>
       <c r="T1" s="14" t="s">
         <v>2</v>
@@ -1586,22 +1576,22 @@
         <v>47</v>
       </c>
       <c r="O2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="R2" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S2" t="s">
         <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1637,19 +1627,19 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>318</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S3" t="s">
+        <v>42</v>
+      </c>
+      <c r="T3" t="s">
         <v>319</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>319</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S3" t="s">
-        <v>42</v>
-      </c>
-      <c r="T3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1685,19 +1675,19 @@
         <v>62</v>
       </c>
       <c r="P4" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>318</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S4" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" t="s">
         <v>319</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>319</v>
-      </c>
-      <c r="R4" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="S4" t="s">
-        <v>42</v>
-      </c>
-      <c r="T4" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1711,10 +1701,10 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>47</v>
@@ -1733,19 +1723,19 @@
         <v>62</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S5" s="2" t="s">
         <v>42</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
@@ -1754,19 +1744,19 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J6" s="6">
         <v>1</v>
@@ -1778,7 +1768,7 @@
         <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P6" t="s">
         <v>59</v>
@@ -1799,19 +1789,19 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J7" s="6">
         <v>1</v>
@@ -1823,10 +1813,10 @@
         <v>42</v>
       </c>
       <c r="N7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P7" t="s">
         <v>61</v>
@@ -1850,19 +1840,19 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H8" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J8" s="6">
         <v>1</v>
@@ -1874,7 +1864,7 @@
         <v>42</v>
       </c>
       <c r="N8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O8" t="s">
         <v>60</v>
@@ -1886,7 +1876,7 @@
         <v>49</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S8" t="s">
         <v>42</v>
@@ -1898,19 +1888,19 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J9" s="6">
         <v>1</v>
@@ -1922,16 +1912,16 @@
         <v>42</v>
       </c>
       <c r="N9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="Q9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="R9" s="6" t="s">
         <v>69</v>
@@ -1948,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
@@ -1957,10 +1947,10 @@
         <v>5</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J10" s="16">
         <v>1</v>
@@ -1972,16 +1962,16 @@
         <v>42</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O10" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="R10" t="s">
         <v>64</v>
@@ -1990,7 +1980,7 @@
         <v>42</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -1999,43 +1989,43 @@
       </c>
       <c r="B11"/>
       <c r="C11" t="s">
+        <v>216</v>
+      </c>
+      <c r="D11" t="s">
         <v>217</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>218</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>219</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>220</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" s="6">
+        <v>1</v>
+      </c>
+      <c r="K11" s="6">
+        <v>1</v>
+      </c>
+      <c r="M11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N11" t="s">
         <v>221</v>
       </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>42</v>
-      </c>
-      <c r="N11" t="s">
-        <v>222</v>
-      </c>
       <c r="O11" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="P11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="Q11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="R11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S11" t="s">
         <v>42</v>
@@ -2081,13 +2071,13 @@
       </c>
       <c r="N12"/>
       <c r="O12" t="s">
+        <v>258</v>
+      </c>
+      <c r="P12" t="s">
         <v>259</v>
       </c>
-      <c r="P12" t="s">
-        <v>260</v>
-      </c>
       <c r="Q12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>65</v>
@@ -2096,7 +2086,7 @@
         <v>42</v>
       </c>
       <c r="T12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -2105,40 +2095,40 @@
       </c>
       <c r="B13"/>
       <c r="C13" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" t="s">
         <v>217</v>
       </c>
-      <c r="D13" t="s">
-        <v>218</v>
-      </c>
       <c r="E13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F13" t="s">
         <v>223</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>224</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" s="6">
+        <v>1</v>
+      </c>
+      <c r="K13" s="6">
+        <v>1</v>
+      </c>
+      <c r="M13" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" t="s">
         <v>225</v>
       </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" t="s">
-        <v>226</v>
-      </c>
       <c r="O13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R13" t="s">
         <v>64</v>
@@ -2153,19 +2143,19 @@
       </c>
       <c r="B14"/>
       <c r="C14" t="s">
+        <v>216</v>
+      </c>
+      <c r="D14" t="s">
         <v>217</v>
       </c>
-      <c r="D14" t="s">
-        <v>218</v>
-      </c>
       <c r="E14" t="s">
+        <v>226</v>
+      </c>
+      <c r="F14" t="s">
         <v>227</v>
       </c>
-      <c r="F14" t="s">
-        <v>228</v>
-      </c>
       <c r="H14" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
@@ -2177,25 +2167,25 @@
         <v>42</v>
       </c>
       <c r="N14" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S14" t="s">
         <v>41</v>
       </c>
       <c r="T14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.3">
@@ -2204,19 +2194,19 @@
       </c>
       <c r="B15"/>
       <c r="C15" t="s">
+        <v>216</v>
+      </c>
+      <c r="D15" t="s">
         <v>217</v>
       </c>
-      <c r="D15" t="s">
-        <v>218</v>
-      </c>
       <c r="E15" t="s">
+        <v>229</v>
+      </c>
+      <c r="F15" t="s">
         <v>230</v>
       </c>
-      <c r="F15" t="s">
-        <v>231</v>
-      </c>
       <c r="H15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
@@ -2228,19 +2218,19 @@
         <v>42</v>
       </c>
       <c r="N15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="O15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S15" t="s">
         <v>41</v>
@@ -2252,40 +2242,40 @@
       </c>
       <c r="B16"/>
       <c r="C16" t="s">
+        <v>216</v>
+      </c>
+      <c r="D16" t="s">
         <v>217</v>
       </c>
-      <c r="D16" t="s">
-        <v>218</v>
-      </c>
       <c r="E16" t="s">
+        <v>232</v>
+      </c>
+      <c r="F16" t="s">
         <v>233</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
+        <v>224</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="M16" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" t="s">
         <v>234</v>
       </c>
-      <c r="H16" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>42</v>
-      </c>
-      <c r="N16" t="s">
-        <v>235</v>
-      </c>
       <c r="O16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R16" t="s">
         <v>64</v>
@@ -2300,19 +2290,19 @@
       </c>
       <c r="B17"/>
       <c r="C17" t="s">
+        <v>216</v>
+      </c>
+      <c r="D17" t="s">
         <v>217</v>
       </c>
-      <c r="D17" t="s">
-        <v>218</v>
-      </c>
       <c r="E17" t="s">
+        <v>235</v>
+      </c>
+      <c r="F17" t="s">
         <v>236</v>
       </c>
-      <c r="F17" t="s">
-        <v>237</v>
-      </c>
       <c r="H17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J17" s="6">
         <v>0</v>
@@ -2324,19 +2314,19 @@
         <v>42</v>
       </c>
       <c r="N17" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="O17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S17" t="s">
         <v>41</v>
@@ -2348,31 +2338,31 @@
       </c>
       <c r="B18"/>
       <c r="C18" t="s">
+        <v>216</v>
+      </c>
+      <c r="D18" t="s">
         <v>217</v>
       </c>
-      <c r="D18" t="s">
-        <v>218</v>
-      </c>
       <c r="E18" t="s">
+        <v>238</v>
+      </c>
+      <c r="F18" t="s">
         <v>239</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
+        <v>224</v>
+      </c>
+      <c r="J18" s="6">
+        <v>1</v>
+      </c>
+      <c r="K18" s="6">
+        <v>1</v>
+      </c>
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="N18" t="s">
         <v>240</v>
-      </c>
-      <c r="H18" t="s">
-        <v>225</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" t="s">
-        <v>42</v>
-      </c>
-      <c r="N18" t="s">
-        <v>241</v>
       </c>
       <c r="O18" t="s">
         <v>4</v>
@@ -2396,19 +2386,19 @@
       </c>
       <c r="B19"/>
       <c r="C19" t="s">
+        <v>216</v>
+      </c>
+      <c r="D19" t="s">
         <v>217</v>
       </c>
-      <c r="D19" t="s">
-        <v>218</v>
-      </c>
       <c r="E19" t="s">
+        <v>241</v>
+      </c>
+      <c r="F19" t="s">
         <v>242</v>
       </c>
-      <c r="F19" t="s">
-        <v>243</v>
-      </c>
       <c r="H19" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J19" s="6">
         <v>0</v>
@@ -2420,7 +2410,7 @@
         <v>42</v>
       </c>
       <c r="N19" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O19" t="s">
         <v>4</v>
@@ -2432,7 +2422,7 @@
         <v>4</v>
       </c>
       <c r="R19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S19" t="s">
         <v>47</v>
@@ -2444,31 +2434,31 @@
       </c>
       <c r="B20"/>
       <c r="C20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D20" t="s">
         <v>217</v>
       </c>
-      <c r="D20" t="s">
-        <v>218</v>
-      </c>
       <c r="E20" t="s">
+        <v>244</v>
+      </c>
+      <c r="F20" t="s">
         <v>245</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J20" s="6">
+        <v>1</v>
+      </c>
+      <c r="K20" s="6">
+        <v>1</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+      <c r="N20" t="s">
         <v>246</v>
-      </c>
-      <c r="H20" t="s">
-        <v>225</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N20" t="s">
-        <v>247</v>
       </c>
       <c r="O20" t="s">
         <v>4</v>
@@ -2486,7 +2476,7 @@
         <v>47</v>
       </c>
       <c r="T20" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -2495,19 +2485,19 @@
       </c>
       <c r="B21"/>
       <c r="C21" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" t="s">
         <v>217</v>
       </c>
-      <c r="D21" t="s">
-        <v>218</v>
-      </c>
       <c r="E21" t="s">
+        <v>247</v>
+      </c>
+      <c r="F21" t="s">
         <v>248</v>
       </c>
-      <c r="F21" t="s">
-        <v>249</v>
-      </c>
       <c r="H21" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J21" s="6">
         <v>0</v>
@@ -2519,7 +2509,7 @@
         <v>42</v>
       </c>
       <c r="N21" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O21" t="s">
         <v>4</v>
@@ -2531,7 +2521,7 @@
         <v>4</v>
       </c>
       <c r="R21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S21" t="s">
         <v>47</v>
@@ -2543,31 +2533,31 @@
       </c>
       <c r="B22"/>
       <c r="C22" t="s">
+        <v>216</v>
+      </c>
+      <c r="D22" t="s">
         <v>217</v>
       </c>
-      <c r="D22" t="s">
-        <v>218</v>
-      </c>
       <c r="E22" t="s">
+        <v>250</v>
+      </c>
+      <c r="F22" t="s">
         <v>251</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="6">
+        <v>1</v>
+      </c>
+      <c r="K22" s="6">
+        <v>1</v>
+      </c>
+      <c r="M22" t="s">
+        <v>42</v>
+      </c>
+      <c r="N22" t="s">
         <v>252</v>
-      </c>
-      <c r="H22" t="s">
-        <v>225</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" t="s">
-        <v>42</v>
-      </c>
-      <c r="N22" t="s">
-        <v>253</v>
       </c>
       <c r="O22" t="s">
         <v>4</v>
@@ -2590,19 +2580,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="E23" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="F23" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="H23" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J23" s="16">
         <v>0</v>
@@ -2614,7 +2604,7 @@
         <v>42</v>
       </c>
       <c r="N23" s="23" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>4</v>
@@ -2626,7 +2616,7 @@
         <v>4</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S23" s="2" t="s">
         <v>47</v>
@@ -2659,13 +2649,13 @@
         <v>41</v>
       </c>
       <c r="O24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q24" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R24" s="1" t="s">
         <v>66</v>
@@ -2689,10 +2679,10 @@
         <v>14</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -2737,7 +2727,7 @@
         <v>14</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>19</v>
@@ -2782,10 +2772,10 @@
         <v>14</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
@@ -2830,10 +2820,10 @@
         <v>14</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
@@ -2854,10 +2844,10 @@
         <v>60</v>
       </c>
       <c r="P28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q28" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R28" s="6" t="s">
         <v>69</v>
@@ -2866,7 +2856,7 @@
         <v>42</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.3">
@@ -2881,10 +2871,10 @@
         <v>14</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
@@ -2926,10 +2916,10 @@
         <v>14</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
@@ -2971,10 +2961,10 @@
         <v>14</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
@@ -3034,13 +3024,13 @@
         <v>41</v>
       </c>
       <c r="O32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R32" s="1" t="s">
         <v>66</v>
@@ -3064,10 +3054,10 @@
         <v>14</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
@@ -3082,13 +3072,13 @@
         <v>42</v>
       </c>
       <c r="O33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R33" s="1" t="s">
         <v>65</v>
@@ -3112,10 +3102,10 @@
         <v>14</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
@@ -3130,13 +3120,13 @@
         <v>42</v>
       </c>
       <c r="O34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R34" s="1" t="s">
         <v>66</v>
@@ -3160,10 +3150,10 @@
         <v>14</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
@@ -3181,10 +3171,10 @@
         <v>60</v>
       </c>
       <c r="P35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="Q35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="R35" s="1" t="s">
         <v>64</v>
@@ -3205,10 +3195,10 @@
         <v>14</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -3254,10 +3244,10 @@
         <v>7</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
@@ -3272,22 +3262,22 @@
         <v>42</v>
       </c>
       <c r="O37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q37" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S37" t="s">
         <v>42</v>
       </c>
       <c r="T37" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -3302,10 +3292,10 @@
         <v>7</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
@@ -3320,16 +3310,16 @@
         <v>42</v>
       </c>
       <c r="O38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R38" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S38" t="s">
         <v>42</v>
@@ -3344,7 +3334,7 @@
       </c>
       <c r="B39"/>
       <c r="C39" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -3353,7 +3343,7 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J39" s="6">
         <v>0</v>
@@ -3389,7 +3379,7 @@
       </c>
       <c r="B40"/>
       <c r="C40" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D40" t="s">
         <v>9</v>
@@ -3398,7 +3388,7 @@
         <v>12</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
@@ -3422,7 +3412,7 @@
         <v>78</v>
       </c>
       <c r="R40" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="S40" t="s">
         <v>42</v>
@@ -3437,7 +3427,7 @@
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3446,7 +3436,7 @@
         <v>24</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J41" s="6">
         <v>1</v>
@@ -3458,22 +3448,22 @@
         <v>42</v>
       </c>
       <c r="O41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R41" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="S41" t="s">
         <v>42</v>
       </c>
       <c r="T41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -3482,16 +3472,16 @@
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J42" s="6">
         <v>1</v>
@@ -3503,13 +3493,13 @@
         <v>42</v>
       </c>
       <c r="O42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R42" s="1" t="s">
         <v>64</v>
@@ -3527,16 +3517,16 @@
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F43" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J43" s="6">
         <v>1</v>
@@ -3569,16 +3559,16 @@
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F44" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J44" s="6">
         <v>1</v>
@@ -3590,13 +3580,13 @@
         <v>41</v>
       </c>
       <c r="O44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q44" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R44" s="1" t="s">
         <v>64</v>
@@ -3614,16 +3604,16 @@
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F45" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J45" s="6">
         <v>1</v>
@@ -3635,13 +3625,13 @@
         <v>41</v>
       </c>
       <c r="O45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R45" s="1" t="s">
         <v>56</v>
@@ -3659,16 +3649,16 @@
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J46" s="6">
         <v>1</v>
@@ -3680,13 +3670,13 @@
         <v>41</v>
       </c>
       <c r="O46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q46" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R46" s="1" t="s">
         <v>64</v>
@@ -3704,16 +3694,16 @@
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="J47" s="6">
         <v>1</v>
@@ -3748,7 +3738,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>25</v>
@@ -3757,7 +3747,7 @@
         <v>26</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -3800,10 +3790,10 @@
         <v>28</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
@@ -3821,13 +3811,13 @@
         <v>86</v>
       </c>
       <c r="P49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q49" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="R49" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S49" t="s">
         <v>42</v>
@@ -3845,10 +3835,10 @@
         <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
@@ -3893,7 +3883,7 @@
         <v>29</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
@@ -3917,7 +3907,7 @@
         <v>89</v>
       </c>
       <c r="R51" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S51" t="s">
         <v>42</v>
@@ -3935,10 +3925,10 @@
         <v>28</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
@@ -3953,13 +3943,13 @@
         <v>42</v>
       </c>
       <c r="O52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R52" s="1" t="s">
         <v>66</v>
@@ -3983,10 +3973,10 @@
         <v>28</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
@@ -4079,10 +4069,10 @@
         <v>28</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
@@ -4127,10 +4117,10 @@
         <v>28</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
@@ -4157,7 +4147,7 @@
         <v>92</v>
       </c>
       <c r="R56" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="S56" t="s">
         <v>42</v>
@@ -4175,10 +4165,10 @@
         <v>28</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
@@ -4226,10 +4216,10 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G58" s="1"/>
       <c r="H58" s="1"/>
@@ -4274,10 +4264,10 @@
         <v>28</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
@@ -4298,10 +4288,10 @@
         <v>86</v>
       </c>
       <c r="P59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q59" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="R59" s="1" t="s">
         <v>64</v>
@@ -4324,7 +4314,7 @@
         <v>54</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4355,7 +4345,7 @@
         <v>41</v>
       </c>
       <c r="T60" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.3">
@@ -4364,7 +4354,7 @@
       </c>
       <c r="B61"/>
       <c r="C61" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>31</v>
@@ -4373,7 +4363,7 @@
         <v>32</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G61" s="1"/>
       <c r="H61" s="1"/>
@@ -4412,7 +4402,7 @@
       </c>
       <c r="B62"/>
       <c r="C62" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -4421,7 +4411,7 @@
         <v>55</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G62" s="1"/>
       <c r="H62" s="1"/>
@@ -4457,16 +4447,16 @@
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F63" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J63" s="6">
         <v>1</v>
@@ -4502,16 +4492,16 @@
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J64" s="6">
         <v>1</v>
@@ -4547,16 +4537,16 @@
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J65" s="6">
         <v>1</v>
@@ -4594,16 +4584,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="J66" s="16">
         <v>1</v>
@@ -4643,16 +4633,16 @@
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F67" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="J67" s="6">
         <v>1</v>
@@ -4685,16 +4675,16 @@
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F68" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J68" s="6">
         <v>1</v>
@@ -4730,16 +4720,16 @@
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F69" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J69" s="6">
         <v>1</v>
@@ -4775,16 +4765,16 @@
       </c>
       <c r="B70"/>
       <c r="C70" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
@@ -4799,13 +4789,13 @@
         <v>42</v>
       </c>
       <c r="O70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q70" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R70" s="1" t="s">
         <v>56</v>
@@ -4823,16 +4813,16 @@
       </c>
       <c r="B71"/>
       <c r="C71" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
@@ -4868,7 +4858,7 @@
       </c>
       <c r="B72"/>
       <c r="C72" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>35</v>
@@ -4910,7 +4900,7 @@
       </c>
       <c r="B73"/>
       <c r="C73" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>35</v>
@@ -4952,13 +4942,13 @@
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -4976,13 +4966,13 @@
         <v>42</v>
       </c>
       <c r="O74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="P74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q74" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R74" s="1" t="s">
         <v>56</v>
@@ -5000,16 +4990,16 @@
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F75" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J75" s="6">
         <v>0</v>
@@ -5024,10 +5014,10 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="Q75" t="s">
-        <v>102</v>
+        <v>322</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>56</v>
@@ -5042,7 +5032,7 @@
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
@@ -5051,7 +5041,7 @@
         <v>40</v>
       </c>
       <c r="F76" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J76" s="6">
         <v>0</v>
@@ -5078,7 +5068,7 @@
         <v>41</v>
       </c>
       <c r="T76" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.3">
@@ -5087,16 +5077,16 @@
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F77" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J77" s="6">
         <v>0</v>
@@ -5123,7 +5113,7 @@
         <v>41</v>
       </c>
       <c r="T77" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5131,16 +5121,16 @@
         <v>8</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J78" s="20">
         <v>0</v>
@@ -5168,7 +5158,7 @@
         <v>41</v>
       </c>
       <c r="T78" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.3">
@@ -5213,13 +5203,13 @@
         <v>62</v>
       </c>
       <c r="P79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q79" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R79" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S79" t="s">
         <v>42</v>
@@ -5267,19 +5257,19 @@
         <v>62</v>
       </c>
       <c r="P80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R80" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S80" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5321,19 +5311,19 @@
         <v>62</v>
       </c>
       <c r="P81" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q81" t="s">
+        <v>123</v>
+      </c>
+      <c r="R81" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Q81" t="s">
-        <v>124</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="S81" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5375,10 +5365,10 @@
         <v>86</v>
       </c>
       <c r="P82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q82" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R82" s="1" t="s">
         <v>64</v>
@@ -5387,7 +5377,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5428,21 +5418,20 @@
       <c r="O83" t="s">
         <v>86</v>
       </c>
-      <c r="P83" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q83" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="R83" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="S83" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="T83" s="25"/>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P83" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q83" t="s">
+        <v>111</v>
+      </c>
+      <c r="R83" t="s">
+        <v>116</v>
+      </c>
+      <c r="S83" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5483,21 +5472,20 @@
       <c r="O84" t="s">
         <v>86</v>
       </c>
-      <c r="P84" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q84" s="25" t="s">
-        <v>113</v>
-      </c>
-      <c r="R84" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="S84" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="T84" s="25"/>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P84" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>112</v>
+      </c>
+      <c r="R84" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="S84" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5538,21 +5526,20 @@
       <c r="O85" t="s">
         <v>86</v>
       </c>
-      <c r="P85" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q85" s="25" t="s">
-        <v>114</v>
-      </c>
-      <c r="R85" s="27" t="s">
+      <c r="P85" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>113</v>
+      </c>
+      <c r="R85" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S85" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="T85" s="25"/>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S85" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5593,21 +5580,20 @@
       <c r="O86" t="s">
         <v>86</v>
       </c>
-      <c r="P86" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q86" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="R86" s="28" t="s">
-        <v>143</v>
-      </c>
-      <c r="S86" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="T86" s="25"/>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="P86" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>321</v>
+      </c>
+      <c r="R86" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="S86" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5619,10 +5605,10 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G87" s="6" t="s">
         <v>47</v>
@@ -5648,21 +5634,20 @@
       <c r="O87" t="s">
         <v>60</v>
       </c>
-      <c r="P87" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q87" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="R87" s="25" t="s">
+      <c r="P87" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>121</v>
+      </c>
+      <c r="R87" t="s">
         <v>56</v>
       </c>
-      <c r="S87" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="T87" s="25"/>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S87" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5674,10 +5659,10 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G88" s="6" t="s">
         <v>47</v>
@@ -5703,21 +5688,20 @@
       <c r="O88" t="s">
         <v>60</v>
       </c>
-      <c r="P88" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q88" s="25" t="s">
-        <v>123</v>
-      </c>
-      <c r="R88" s="25" t="s">
+      <c r="P88" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>122</v>
+      </c>
+      <c r="R88" t="s">
         <v>56</v>
       </c>
-      <c r="S88" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="T88" s="25"/>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="S88" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5759,10 +5743,10 @@
         <v>60</v>
       </c>
       <c r="P89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R89" s="1" t="s">
         <v>64</v>
@@ -5771,7 +5755,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5813,10 +5797,10 @@
         <v>60</v>
       </c>
       <c r="P90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R90" s="1" t="s">
         <v>64</v>
@@ -5825,7 +5809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>
@@ -5867,13 +5851,13 @@
         <v>60</v>
       </c>
       <c r="P91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q91" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R91" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="S91" t="s">
         <v>42</v>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD0BD41C-31D8-423C-B627-F68BAB56B018}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D286E043-21FA-4858-9C18-BE7C90252065}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="324">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -855,9 +855,6 @@
     <t>[Uint8]</t>
   </si>
   <si>
-    <t>(Nu nog) Index van C.DATA.BRO.COM.List.QualityRegime</t>
-  </si>
-  <si>
     <t>RegistrationObject</t>
   </si>
   <si>
@@ -997,6 +994,12 @@
   </si>
   <si>
     <t>sedSumpLength</t>
+  </si>
+  <si>
+    <t>[IDCategorical]</t>
+  </si>
+  <si>
+    <t>Index van C.DATA.BRO.COM.List.QualityRegime</t>
   </si>
 </sst>
 </file>
@@ -1456,11 +1459,11 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O44" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2865" ySplit="705" topLeftCell="M34" activePane="bottomRight"/>
+      <pane xSplit="2865" ySplit="705" topLeftCell="I1" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="AA75" sqref="AA75"/>
+      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,10 +1582,10 @@
         <v>258</v>
       </c>
       <c r="P2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R2" s="7" t="s">
         <v>142</v>
@@ -1591,7 +1594,7 @@
         <v>42</v>
       </c>
       <c r="T2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.3">
@@ -1627,10 +1630,10 @@
         <v>86</v>
       </c>
       <c r="P3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>142</v>
@@ -1639,7 +1642,7 @@
         <v>42</v>
       </c>
       <c r="T3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.3">
@@ -1675,10 +1678,10 @@
         <v>62</v>
       </c>
       <c r="P4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>142</v>
@@ -1687,7 +1690,7 @@
         <v>42</v>
       </c>
       <c r="T4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -1701,7 +1704,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>189</v>
@@ -1744,7 +1747,7 @@
       </c>
       <c r="B6"/>
       <c r="C6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -1789,13 +1792,13 @@
       </c>
       <c r="B7"/>
       <c r="C7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D7" t="s">
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
         <v>163</v>
@@ -1840,13 +1843,13 @@
       </c>
       <c r="B8"/>
       <c r="C8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D8" t="s">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F8" t="s">
         <v>164</v>
@@ -1888,13 +1891,13 @@
       </c>
       <c r="B9"/>
       <c r="C9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" t="s">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" t="s">
         <v>165</v>
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>0</v>
@@ -1974,13 +1977,13 @@
         <v>141</v>
       </c>
       <c r="R10" t="s">
-        <v>64</v>
+        <v>322</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>42</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -2476,7 +2479,7 @@
         <v>47</v>
       </c>
       <c r="T20" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
@@ -3427,7 +3430,7 @@
       </c>
       <c r="B41"/>
       <c r="C41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
         <v>23</v>
@@ -3472,13 +3475,13 @@
       </c>
       <c r="B42"/>
       <c r="C42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D42" t="s">
         <v>23</v>
       </c>
       <c r="E42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F42" t="s">
         <v>182</v>
@@ -3517,13 +3520,13 @@
       </c>
       <c r="B43"/>
       <c r="C43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D43" t="s">
         <v>23</v>
       </c>
       <c r="E43" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F43" t="s">
         <v>183</v>
@@ -3559,13 +3562,13 @@
       </c>
       <c r="B44"/>
       <c r="C44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D44" t="s">
         <v>25</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F44" t="s">
         <v>184</v>
@@ -3604,13 +3607,13 @@
       </c>
       <c r="B45"/>
       <c r="C45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F45" t="s">
         <v>185</v>
@@ -3649,13 +3652,13 @@
       </c>
       <c r="B46"/>
       <c r="C46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="E46" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F46" t="s">
         <v>186</v>
@@ -3694,13 +3697,13 @@
       </c>
       <c r="B47"/>
       <c r="C47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="E47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F47" t="s">
         <v>187</v>
@@ -3738,7 +3741,7 @@
         <v>8</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>25</v>
@@ -3790,7 +3793,7 @@
         <v>28</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>189</v>
@@ -3835,7 +3838,7 @@
         <v>28</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>190</v>
@@ -3925,7 +3928,7 @@
         <v>28</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>192</v>
@@ -3973,7 +3976,7 @@
         <v>28</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>193</v>
@@ -4069,7 +4072,7 @@
         <v>28</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>194</v>
@@ -4117,7 +4120,7 @@
         <v>28</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>195</v>
@@ -4165,7 +4168,7 @@
         <v>28</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>196</v>
@@ -4216,7 +4219,7 @@
         <v>28</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>197</v>
@@ -4264,7 +4267,7 @@
         <v>28</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>198</v>
@@ -4354,7 +4357,7 @@
       </c>
       <c r="B61"/>
       <c r="C61" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>31</v>
@@ -4402,7 +4405,7 @@
       </c>
       <c r="B62"/>
       <c r="C62" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>31</v>
@@ -4447,13 +4450,13 @@
       </c>
       <c r="B63"/>
       <c r="C63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D63" t="s">
         <v>33</v>
       </c>
       <c r="E63" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F63" t="s">
         <v>202</v>
@@ -4492,13 +4495,13 @@
       </c>
       <c r="B64"/>
       <c r="C64" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
         <v>33</v>
       </c>
       <c r="E64" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F64" t="s">
         <v>203</v>
@@ -4537,13 +4540,13 @@
       </c>
       <c r="B65"/>
       <c r="C65" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
       </c>
       <c r="E65" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F65" t="s">
         <v>204</v>
@@ -4584,13 +4587,13 @@
         <v>8</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>205</v>
@@ -4633,13 +4636,13 @@
       </c>
       <c r="B67"/>
       <c r="C67" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
         <v>34</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F67" t="s">
         <v>206</v>
@@ -4675,13 +4678,13 @@
       </c>
       <c r="B68"/>
       <c r="C68" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D68" t="s">
         <v>34</v>
       </c>
       <c r="E68" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F68" t="s">
         <v>207</v>
@@ -4720,13 +4723,13 @@
       </c>
       <c r="B69"/>
       <c r="C69" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D69" t="s">
         <v>34</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F69" t="s">
         <v>208</v>
@@ -4765,13 +4768,13 @@
       </c>
       <c r="B70"/>
       <c r="C70" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>209</v>
@@ -4813,13 +4816,13 @@
       </c>
       <c r="B71"/>
       <c r="C71" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>210</v>
@@ -4858,7 +4861,7 @@
       </c>
       <c r="B72"/>
       <c r="C72" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>35</v>
@@ -4900,7 +4903,7 @@
       </c>
       <c r="B73"/>
       <c r="C73" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>35</v>
@@ -4942,13 +4945,13 @@
       </c>
       <c r="B74"/>
       <c r="C74" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D74" t="s">
         <v>36</v>
       </c>
       <c r="E74" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F74" t="s">
         <v>37</v>
@@ -4990,13 +4993,13 @@
       </c>
       <c r="B75"/>
       <c r="C75" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D75" t="s">
         <v>38</v>
       </c>
       <c r="E75" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F75" t="s">
         <v>211</v>
@@ -5014,10 +5017,10 @@
         <v>86</v>
       </c>
       <c r="P75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q75" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="R75" s="1" t="s">
         <v>56</v>
@@ -5032,7 +5035,7 @@
       </c>
       <c r="B76"/>
       <c r="C76" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D76" t="s">
         <v>39</v>
@@ -5077,13 +5080,13 @@
       </c>
       <c r="B77"/>
       <c r="C77" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D77" t="s">
         <v>39</v>
       </c>
       <c r="E77" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F77" t="s">
         <v>213</v>
@@ -5121,13 +5124,13 @@
         <v>8</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>39</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>214</v>
@@ -5581,10 +5584,10 @@
         <v>86</v>
       </c>
       <c r="P86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q86" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="R86" s="7" t="s">
         <v>142</v>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D286E043-21FA-4858-9C18-BE7C90252065}"/>
+  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47BE3D7E-FE4E-467A-BEC4-DB1733279646}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="326">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -1000,6 +1000,12 @@
   </si>
   <si>
     <t>Index van C.DATA.BRO.COM.List.QualityRegime</t>
+  </si>
+  <si>
+    <t>screenTopPosition</t>
+  </si>
+  <si>
+    <t>screenBottomPosition</t>
   </si>
 </sst>
 </file>
@@ -1458,36 +1464,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O44" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2865" ySplit="705" topLeftCell="I1" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="O51" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2892" ySplit="732" topLeftCell="A55" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="T16" sqref="T16"/>
+      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -1549,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1597,7 +1603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1936,7 +1942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1986,7 +1992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2034,7 +2040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2140,7 +2146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2191,7 +2197,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2287,7 +2293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2335,7 +2341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2383,7 +2389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2431,7 +2437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2482,7 +2488,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2530,7 +2536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2578,7 +2584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2625,7 +2631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2670,7 +2676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2763,7 +2769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2811,7 +2817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2862,7 +2868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2907,7 +2913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2952,7 +2958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3187,7 +3193,7 @@
       </c>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -3235,7 +3241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3283,7 +3289,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3331,7 +3337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3376,7 +3382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3424,7 +3430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3514,7 +3520,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3556,7 +3562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3601,7 +3607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3646,7 +3652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3691,7 +3697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3736,7 +3742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3826,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3871,7 +3877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3916,7 +3922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3955,7 +3961,7 @@
         <v>103</v>
       </c>
       <c r="R52" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="S52" t="s">
         <v>41</v>
@@ -3964,7 +3970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4012,7 +4018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4060,7 +4066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4108,7 +4114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4156,7 +4162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4207,7 +4213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4255,7 +4261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4303,7 +4309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4341,8 +4347,8 @@
       <c r="Q60" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="3" t="s">
-        <v>66</v>
+      <c r="R60" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="S60" s="2" t="s">
         <v>41</v>
@@ -4351,7 +4357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4399,7 +4405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4438,13 +4444,13 @@
         <v>4</v>
       </c>
       <c r="R62" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="S62" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -4489,7 +4495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4534,7 +4540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4582,7 +4588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -4630,7 +4636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4672,7 +4678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4762,7 +4768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -4810,7 +4816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4855,7 +4861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4867,7 +4873,7 @@
         <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>324</v>
       </c>
       <c r="F72" t="s">
         <v>57</v>
@@ -4897,7 +4903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4909,7 +4915,7 @@
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>325</v>
       </c>
       <c r="F73" t="s">
         <v>58</v>
@@ -4939,7 +4945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4987,7 +4993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5029,7 +5035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5074,7 +5080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5119,7 +5125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>8</v>
       </c>
@@ -5164,7 +5170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -5218,7 +5224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5272,7 +5278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5326,7 +5332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5380,7 +5386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5434,7 +5440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5488,7 +5494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5542,7 +5548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5596,7 +5602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5704,7 +5710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5812,7 +5818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="101" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{47BE3D7E-FE4E-467A-BEC4-DB1733279646}"/>
+  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80A4C3E-35B4-44BE-9619-F4AAFDAB0D8E}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1465,35 +1465,35 @@
   <dimension ref="A1:T91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O51" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2892" ySplit="732" topLeftCell="A55" activePane="bottomRight"/>
+      <pane xSplit="2895" ySplit="735" topLeftCell="I6" activePane="bottomRight"/>
       <selection activeCell="D5" sqref="D5"/>
       <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
       <selection pane="bottomLeft" activeCell="O4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="E73" sqref="E73"/>
+      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.44140625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="34.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" customWidth="1"/>
-    <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.28515625" customWidth="1"/>
-    <col min="18" max="18" width="26.28515625" customWidth="1"/>
-    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="34.44140625" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.33203125" customWidth="1"/>
+    <col min="18" max="18" width="26.33203125" customWidth="1"/>
+    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1603,7 +1603,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1651,7 +1651,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1747,7 +1747,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1792,7 +1792,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1891,7 +1891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1942,7 +1942,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2146,7 +2146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2197,7 +2197,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2341,7 +2341,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2584,7 +2584,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2769,7 +2769,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2817,7 +2817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2913,7 +2913,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2958,7 +2958,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -3003,7 +3003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>103</v>
       </c>
       <c r="R34" s="1" t="s">
-        <v>66</v>
+        <v>143</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>41</v>
@@ -3147,7 +3147,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3193,7 +3193,7 @@
       </c>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3382,7 +3382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3430,7 +3430,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3475,7 +3475,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3562,7 +3562,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3607,7 +3607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3697,7 +3697,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3742,7 +3742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3832,7 +3832,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3922,7 +3922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3970,7 +3970,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4162,7 +4162,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4450,7 +4450,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4723,7 +4723,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4861,7 +4861,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4945,7 +4945,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4993,7 +4993,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5035,7 +5035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5125,7 +5125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11" t="s">
         <v>8</v>
       </c>
@@ -5170,7 +5170,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5332,7 +5332,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5656,7 +5656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5818,7 +5818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>4</v>
       </c>

--- a/BROMappings/Mapping en definitie BRO GMW.xlsx
+++ b/BROMappings/Mapping en definitie BRO GMW.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://3hydro-my.sharepoint.com/personal/jos_von_asmuth_3hydro_nl/Documents/MATLAB/Menyanthes/Meny_OS/trunk/BronDatamodel/BROMappings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="102" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B80A4C3E-35B4-44BE-9619-F4AAFDAB0D8E}"/>
+  <xr:revisionPtr revIDLastSave="107" documentId="13_ncr:1_{C98B97DB-AF31-43E8-BA33-4B0785DBF11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A34A134C-CEDE-4BA5-A343-64228824AF03}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="331">
   <si>
     <t>Registratieobject</t>
   </si>
@@ -1006,6 +1006,21 @@
   </si>
   <si>
     <t>screenBottomPosition</t>
+  </si>
+  <si>
+    <t>[JaNeeOnbekend]</t>
+  </si>
+  <si>
+    <t>[JaNee]</t>
+  </si>
+  <si>
+    <t>[DateTime]</t>
+  </si>
+  <si>
+    <t>[m+NAP]</t>
+  </si>
+  <si>
+    <t>[mm]</t>
   </si>
 </sst>
 </file>
@@ -1464,36 +1479,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O51" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2895" ySplit="735" topLeftCell="I6" activePane="bottomRight"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="6480" ySplit="705" topLeftCell="R46" activePane="bottomLeft"/>
       <selection activeCell="D5" sqref="D5"/>
-      <selection pane="topRight" activeCell="F44" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="O4" sqref="A4:XFD4"/>
-      <selection pane="bottomRight" activeCell="R34" sqref="R34"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74:G77"/>
+      <selection pane="bottomRight" activeCell="R74" sqref="R74:R77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="22.44140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" customWidth="1"/>
-    <col min="6" max="6" width="34.44140625" customWidth="1"/>
-    <col min="7" max="7" width="23.5546875" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="20.109375" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="6" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.33203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="25.33203125" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" customWidth="1"/>
-    <col min="19" max="19" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="77.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" customWidth="1"/>
+    <col min="9" max="9" width="20.140625" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="25.28515625" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" customWidth="1"/>
+    <col min="19" max="19" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="77.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="14" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="14" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="14" t="s">
         <v>147</v>
       </c>
@@ -1555,7 +1570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1572,6 +1587,9 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
       <c r="J2" s="6" t="s">
         <v>47</v>
       </c>
@@ -1603,7 +1621,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -1620,6 +1638,9 @@
       <c r="F3" t="s">
         <v>4</v>
       </c>
+      <c r="G3" t="s">
+        <v>4</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>47</v>
       </c>
@@ -1651,7 +1672,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1668,6 +1689,9 @@
       <c r="F4" t="s">
         <v>4</v>
       </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>47</v>
       </c>
@@ -1699,7 +1723,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -1714,6 +1738,9 @@
       </c>
       <c r="F5" s="2" t="s">
         <v>189</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>274</v>
       </c>
       <c r="J5" s="16" t="s">
         <v>47</v>
@@ -1747,7 +1774,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -1764,6 +1791,9 @@
       <c r="F6" t="s">
         <v>271</v>
       </c>
+      <c r="G6" t="s">
+        <v>70</v>
+      </c>
       <c r="H6" t="s">
         <v>270</v>
       </c>
@@ -1792,7 +1822,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -1809,6 +1839,9 @@
       <c r="F7" t="s">
         <v>163</v>
       </c>
+      <c r="G7" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H7" t="s">
         <v>268</v>
       </c>
@@ -1843,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -1860,6 +1893,9 @@
       <c r="F8" t="s">
         <v>164</v>
       </c>
+      <c r="G8" s="6" t="s">
+        <v>106</v>
+      </c>
       <c r="H8" t="s">
         <v>269</v>
       </c>
@@ -1891,7 +1927,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1908,6 +1944,9 @@
       <c r="F9" t="s">
         <v>165</v>
       </c>
+      <c r="G9" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" t="s">
         <v>268</v>
       </c>
@@ -1942,7 +1981,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
@@ -1958,6 +1997,9 @@
       <c r="F10" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="G10" s="2" t="s">
+        <v>322</v>
+      </c>
       <c r="H10" s="2" t="s">
         <v>224</v>
       </c>
@@ -1973,7 +2015,7 @@
       <c r="N10" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="O10" t="s">
+      <c r="O10" s="2" t="s">
         <v>258</v>
       </c>
       <c r="P10" s="2" t="s">
@@ -1982,7 +2024,7 @@
       <c r="Q10" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="R10" t="s">
+      <c r="R10" s="2" t="s">
         <v>322</v>
       </c>
       <c r="S10" s="2" t="s">
@@ -1992,7 +2034,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2009,6 +2051,9 @@
       <c r="F11" t="s">
         <v>219</v>
       </c>
+      <c r="G11" t="s">
+        <v>328</v>
+      </c>
       <c r="H11" t="s">
         <v>220</v>
       </c>
@@ -2040,7 +2085,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -2057,8 +2102,8 @@
       <c r="F12" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
+      <c r="G12" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="H12" s="6" t="s">
         <v>47</v>
@@ -2098,7 +2143,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -2115,6 +2160,9 @@
       <c r="F13" t="s">
         <v>223</v>
       </c>
+      <c r="G13" t="s">
+        <v>64</v>
+      </c>
       <c r="H13" t="s">
         <v>224</v>
       </c>
@@ -2146,7 +2194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -2163,6 +2211,9 @@
       <c r="F14" t="s">
         <v>227</v>
       </c>
+      <c r="G14" t="s">
+        <v>328</v>
+      </c>
       <c r="H14" t="s">
         <v>220</v>
       </c>
@@ -2197,7 +2248,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -2214,6 +2265,9 @@
       <c r="F15" t="s">
         <v>230</v>
       </c>
+      <c r="G15" t="s">
+        <v>328</v>
+      </c>
       <c r="H15" t="s">
         <v>220</v>
       </c>
@@ -2245,7 +2299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -2262,6 +2316,9 @@
       <c r="F16" t="s">
         <v>233</v>
       </c>
+      <c r="G16" t="s">
+        <v>64</v>
+      </c>
       <c r="H16" t="s">
         <v>224</v>
       </c>
@@ -2293,7 +2350,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>8</v>
       </c>
@@ -2310,6 +2367,9 @@
       <c r="F17" t="s">
         <v>236</v>
       </c>
+      <c r="G17" t="s">
+        <v>328</v>
+      </c>
       <c r="H17" t="s">
         <v>220</v>
       </c>
@@ -2341,7 +2401,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>8</v>
       </c>
@@ -2358,6 +2418,9 @@
       <c r="F18" t="s">
         <v>239</v>
       </c>
+      <c r="G18" t="s">
+        <v>64</v>
+      </c>
       <c r="H18" t="s">
         <v>224</v>
       </c>
@@ -2389,7 +2452,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>8</v>
       </c>
@@ -2406,6 +2469,9 @@
       <c r="F19" t="s">
         <v>242</v>
       </c>
+      <c r="G19" t="s">
+        <v>328</v>
+      </c>
       <c r="H19" t="s">
         <v>220</v>
       </c>
@@ -2437,7 +2503,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>8</v>
       </c>
@@ -2454,6 +2520,9 @@
       <c r="F20" t="s">
         <v>245</v>
       </c>
+      <c r="G20" t="s">
+        <v>64</v>
+      </c>
       <c r="H20" t="s">
         <v>224</v>
       </c>
@@ -2488,7 +2557,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -2505,6 +2574,9 @@
       <c r="F21" t="s">
         <v>248</v>
       </c>
+      <c r="G21" t="s">
+        <v>328</v>
+      </c>
       <c r="H21" t="s">
         <v>220</v>
       </c>
@@ -2536,7 +2608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>8</v>
       </c>
@@ -2553,6 +2625,9 @@
       <c r="F22" t="s">
         <v>251</v>
       </c>
+      <c r="G22" t="s">
+        <v>64</v>
+      </c>
       <c r="H22" t="s">
         <v>224</v>
       </c>
@@ -2584,7 +2659,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>8</v>
       </c>
@@ -2600,6 +2675,9 @@
       <c r="F23" s="2" t="s">
         <v>254</v>
       </c>
+      <c r="G23" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="H23" s="2" t="s">
         <v>220</v>
       </c>
@@ -2631,7 +2709,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -2648,6 +2726,9 @@
       <c r="F24" t="s">
         <v>43</v>
       </c>
+      <c r="G24" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="J24" s="6">
         <v>1</v>
       </c>
@@ -2676,7 +2757,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -2693,7 +2774,9 @@
       <c r="F25" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="6">
@@ -2724,7 +2807,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -2741,7 +2824,9 @@
       <c r="F26" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="6">
@@ -2769,7 +2854,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -2786,7 +2871,9 @@
       <c r="F27" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="6">
@@ -2817,7 +2904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -2834,7 +2921,9 @@
       <c r="F28" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="G28" s="1"/>
+      <c r="G28" s="6" t="s">
+        <v>69</v>
+      </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="6">
@@ -2868,7 +2957,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -2885,7 +2974,9 @@
       <c r="F29" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="6">
@@ -2913,7 +3004,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -2930,7 +3021,9 @@
       <c r="F30" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="6">
@@ -2958,7 +3051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +3068,9 @@
       <c r="F31" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="6">
@@ -3003,7 +3098,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -3020,7 +3115,9 @@
       <c r="F32" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="6">
@@ -3051,7 +3148,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -3068,7 +3165,9 @@
       <c r="F33" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="6">
@@ -3099,7 +3198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -3116,7 +3215,9 @@
       <c r="F34" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G34" s="1"/>
+      <c r="G34" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="6">
@@ -3147,7 +3248,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -3164,7 +3265,9 @@
       <c r="F35" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="G35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="6">
@@ -3193,7 +3296,7 @@
       </c>
       <c r="T35" s="8"/>
     </row>
-    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>8</v>
       </c>
@@ -3209,7 +3312,9 @@
       <c r="F36" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="G36" s="3"/>
+      <c r="G36" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="16">
@@ -3241,7 +3346,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -3258,7 +3363,9 @@
       <c r="F37" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="G37" s="1"/>
+      <c r="G37" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="6">
@@ -3289,7 +3396,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -3306,7 +3413,9 @@
       <c r="F38" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="G38" s="1"/>
+      <c r="G38" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="6">
@@ -3337,7 +3446,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>8</v>
       </c>
@@ -3354,6 +3463,9 @@
       <c r="F39" t="s">
         <v>179</v>
       </c>
+      <c r="G39" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J39" s="6">
         <v>0</v>
       </c>
@@ -3382,7 +3494,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -3399,7 +3511,9 @@
       <c r="F40" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="G40" s="1"/>
+      <c r="G40" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="6">
@@ -3430,7 +3544,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>8</v>
       </c>
@@ -3447,6 +3561,9 @@
       <c r="F41" t="s">
         <v>181</v>
       </c>
+      <c r="G41" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="J41" s="6">
         <v>1</v>
       </c>
@@ -3475,7 +3592,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>8</v>
       </c>
@@ -3492,6 +3609,9 @@
       <c r="F42" t="s">
         <v>182</v>
       </c>
+      <c r="G42" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J42" s="6">
         <v>1</v>
       </c>
@@ -3520,7 +3640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>8</v>
       </c>
@@ -3537,6 +3657,9 @@
       <c r="F43" t="s">
         <v>183</v>
       </c>
+      <c r="G43" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J43" s="6">
         <v>1</v>
       </c>
@@ -3562,7 +3685,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>8</v>
       </c>
@@ -3579,6 +3702,9 @@
       <c r="F44" t="s">
         <v>184</v>
       </c>
+      <c r="G44" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J44" s="6">
         <v>1</v>
       </c>
@@ -3607,7 +3733,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>8</v>
       </c>
@@ -3624,6 +3750,9 @@
       <c r="F45" t="s">
         <v>185</v>
       </c>
+      <c r="G45" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J45" s="6">
         <v>1</v>
       </c>
@@ -3652,7 +3781,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>8</v>
       </c>
@@ -3669,6 +3798,9 @@
       <c r="F46" t="s">
         <v>186</v>
       </c>
+      <c r="G46" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J46" s="6">
         <v>1</v>
       </c>
@@ -3697,7 +3829,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -3714,6 +3846,9 @@
       <c r="F47" t="s">
         <v>187</v>
       </c>
+      <c r="G47" t="s">
+        <v>329</v>
+      </c>
       <c r="J47" s="6">
         <v>1</v>
       </c>
@@ -3742,7 +3877,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>8</v>
       </c>
@@ -3757,6 +3892,9 @@
       </c>
       <c r="F48" s="2" t="s">
         <v>188</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>64</v>
       </c>
       <c r="J48" s="16">
         <v>1</v>
@@ -3787,7 +3925,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>8</v>
       </c>
@@ -3804,7 +3942,9 @@
       <c r="F49" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="G49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>274</v>
+      </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="6">
@@ -3832,7 +3972,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>8</v>
       </c>
@@ -3849,7 +3989,9 @@
       <c r="F50" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G50" s="1"/>
+      <c r="G50" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="6">
@@ -3877,7 +4019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -3894,7 +4036,9 @@
       <c r="F51" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="G51" s="1"/>
+      <c r="G51" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="6">
@@ -3922,7 +4066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -3939,7 +4083,9 @@
       <c r="F52" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G52" s="1"/>
+      <c r="G52" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="6">
@@ -3970,7 +4116,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>8</v>
       </c>
@@ -3987,7 +4133,9 @@
       <c r="F53" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="G53" s="1"/>
+      <c r="G53" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="6">
@@ -4018,7 +4166,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -4035,7 +4183,9 @@
       <c r="F54" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G54" s="1"/>
+      <c r="G54" s="1" t="s">
+        <v>327</v>
+      </c>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="6">
@@ -4066,7 +4216,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>8</v>
       </c>
@@ -4083,7 +4233,9 @@
       <c r="F55" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G55" s="1"/>
+      <c r="G55" s="1" t="s">
+        <v>330</v>
+      </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
       <c r="J55" s="6">
@@ -4114,7 +4266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>8</v>
       </c>
@@ -4131,7 +4283,9 @@
       <c r="F56" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="G56" s="1"/>
+      <c r="G56" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
       <c r="J56" s="6">
@@ -4162,7 +4316,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>8</v>
       </c>
@@ -4179,7 +4333,9 @@
       <c r="F57" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G57" s="1"/>
+      <c r="G57" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="6">
@@ -4213,7 +4369,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -4230,7 +4386,9 @@
       <c r="F58" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="G58" s="1"/>
+      <c r="G58" t="s">
+        <v>329</v>
+      </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
       <c r="J58" s="6">
@@ -4261,7 +4419,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>8</v>
       </c>
@@ -4278,7 +4436,9 @@
       <c r="F59" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="G59" s="1"/>
+      <c r="G59" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="6">
@@ -4309,7 +4469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>8</v>
       </c>
@@ -4325,7 +4485,9 @@
       <c r="F60" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="G60" s="3"/>
+      <c r="G60" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="16">
@@ -4357,7 +4519,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>8</v>
       </c>
@@ -4374,7 +4536,9 @@
       <c r="F61" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="G61" s="1"/>
+      <c r="G61" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
       <c r="J61" s="6">
@@ -4405,7 +4569,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>8</v>
       </c>
@@ -4422,7 +4586,9 @@
       <c r="F62" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G62" s="1"/>
+      <c r="G62" s="1" t="s">
+        <v>326</v>
+      </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
       <c r="J62" s="6">
@@ -4450,7 +4616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>8</v>
       </c>
@@ -4467,6 +4633,9 @@
       <c r="F63" t="s">
         <v>202</v>
       </c>
+      <c r="G63" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="J63" s="6">
         <v>1</v>
       </c>
@@ -4495,7 +4664,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>8</v>
       </c>
@@ -4512,6 +4681,9 @@
       <c r="F64" t="s">
         <v>203</v>
       </c>
+      <c r="G64" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J64" s="6">
         <v>1</v>
       </c>
@@ -4540,7 +4712,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>8</v>
       </c>
@@ -4557,6 +4729,9 @@
       <c r="F65" t="s">
         <v>204</v>
       </c>
+      <c r="G65" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J65" s="6">
         <v>1</v>
       </c>
@@ -4588,7 +4763,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -4604,6 +4779,9 @@
       <c r="F66" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="G66" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="J66" s="16">
         <v>1</v>
       </c>
@@ -4636,7 +4814,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>8</v>
       </c>
@@ -4653,6 +4831,9 @@
       <c r="F67" t="s">
         <v>206</v>
       </c>
+      <c r="G67" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J67" s="6">
         <v>1</v>
       </c>
@@ -4678,7 +4859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>8</v>
       </c>
@@ -4695,6 +4876,9 @@
       <c r="F68" t="s">
         <v>207</v>
       </c>
+      <c r="G68" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J68" s="6">
         <v>1</v>
       </c>
@@ -4723,7 +4907,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -4740,6 +4924,9 @@
       <c r="F69" t="s">
         <v>208</v>
       </c>
+      <c r="G69" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J69" s="6">
         <v>1</v>
       </c>
@@ -4768,7 +4955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>8</v>
       </c>
@@ -4785,7 +4972,9 @@
       <c r="F70" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="G70" s="1"/>
+      <c r="G70" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
       <c r="J70" s="6">
@@ -4816,7 +5005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>8</v>
       </c>
@@ -4833,7 +5022,9 @@
       <c r="F71" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G71" s="1"/>
+      <c r="G71" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="6">
@@ -4861,7 +5052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4878,6 +5069,9 @@
       <c r="F72" t="s">
         <v>57</v>
       </c>
+      <c r="G72" t="s">
+        <v>329</v>
+      </c>
       <c r="J72" s="6">
         <v>0</v>
       </c>
@@ -4903,7 +5097,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4920,6 +5114,9 @@
       <c r="F73" t="s">
         <v>58</v>
       </c>
+      <c r="G73" t="s">
+        <v>329</v>
+      </c>
       <c r="J73" s="6">
         <v>0</v>
       </c>
@@ -4945,7 +5142,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4962,6 +5159,9 @@
       <c r="F74" t="s">
         <v>37</v>
       </c>
+      <c r="G74" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J74" s="6">
         <v>1</v>
       </c>
@@ -4993,7 +5193,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -5010,6 +5210,9 @@
       <c r="F75" t="s">
         <v>211</v>
       </c>
+      <c r="G75" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J75" s="6">
         <v>0</v>
       </c>
@@ -5035,7 +5238,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -5052,6 +5255,9 @@
       <c r="F76" t="s">
         <v>212</v>
       </c>
+      <c r="G76" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J76" s="6">
         <v>0</v>
       </c>
@@ -5080,7 +5286,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>8</v>
       </c>
@@ -5097,6 +5303,9 @@
       <c r="F77" t="s">
         <v>213</v>
       </c>
+      <c r="G77" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="J77" s="6">
         <v>0</v>
       </c>
@@ -5125,7 +5334,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="78" spans="1:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="11" t="s">
         <v>8</v>
       </c>
@@ -5141,6 +5350,9 @@
       <c r="F78" s="11" t="s">
         <v>214</v>
       </c>
+      <c r="G78" s="12" t="s">
+        <v>64</v>
+      </c>
       <c r="J78" s="20">
         <v>0</v>
       </c>
@@ -5170,7 +5382,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>4</v>
       </c>
@@ -5278,7 +5490,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>4</v>
       </c>
@@ -5332,7 +5544,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>4</v>
       </c>
@@ -5386,7 +5598,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>4</v>
       </c>
@@ -5440,7 +5652,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>4</v>
       </c>
@@ -5494,7 +5706,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>4</v>
       </c>
@@ -5548,7 +5760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>4</v>
       </c>
@@ -5602,7 +5814,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>4</v>
       </c>
@@ -5656,7 +5868,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>4</v>
       </c>
@@ -5710,7 +5922,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>4</v>
       </c>
@@ -5764,7 +5976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>4</v>
       </c>
@@ -5818,7 +6030,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>4</v>
       </c>
